--- a/data/input/CLASIFICACION_ABC+D_MAF_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MAF_P2_2025.xlsx
@@ -5375,12 +5375,12 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>7905040000</t>
+          <t>7905120004</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>PEPINO</t>
+          <t>TOMATE RAF</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -5410,13 +5410,13 @@
         <v>110</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>279.1</v>
+        <v>273.9</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>147.03</v>
+        <v>142.3</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>75.34</v>
+        <v>61.11</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -5428,50 +5428,50 @@
         <v>26.9</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>120</v>
+        <v>213.33</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T54" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T54" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO LEVE + OPTIMIZACIÓN: Aplicar descuento 20% para renovar inventario. Reducir compras 15% próxima temporada.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 4 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>7905120004</t>
+          <t>7905040000</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>TOMATE RAF</t>
+          <t>PEPINO</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -5501,13 +5501,13 @@
         <v>110</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>273.9</v>
+        <v>279.1</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>142.3</v>
+        <v>147.03</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>61.11</v>
+        <v>75.34</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -5519,38 +5519,38 @@
         <v>26.9</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>213.33</v>
+        <v>120</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T55" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T55" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 4 unidades. Prioridad alta.</t>
+          <t>DESCUENTO LEVE + OPTIMIZACIÓN: Aplicar descuento 20% para renovar inventario. Reducir compras 15% próxima temporada.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -10380,17 +10380,17 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7805010002</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>OCIMUN BASILICUM GRAND VERT</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -10415,16 +10415,16 @@
         <v>48</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>222.04</v>
+        <v>232.8</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>134.65</v>
+        <v>144.44</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>46.6</v>
+        <v>75</v>
       </c>
       <c r="L109" s="4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M109" s="5" t="n">
         <v>3.9</v>
@@ -10433,10 +10433,10 @@
         <v>11.7</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q109" s="4" t="n">
         <v>25</v>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 2 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
@@ -10464,24 +10464,24 @@
       </c>
       <c r="W109" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>7805010002</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>OCIMUN BASILICUM GRAND VERT</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -10506,16 +10506,16 @@
         <v>48</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>232.8</v>
+        <v>222.04</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>144.44</v>
+        <v>134.65</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>75</v>
+        <v>46.6</v>
       </c>
       <c r="L110" s="4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M110" s="5" t="n">
         <v>3.9</v>
@@ -10524,10 +10524,10 @@
         <v>11.7</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q110" s="4" t="n">
         <v>25</v>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 2 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
@@ -10555,7 +10555,7 @@
       </c>
       <c r="W110" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14930,17 +14930,17 @@
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7905120001</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>TOMATE MONTSERRAT</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
@@ -14950,88 +14950,88 @@
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F159" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G159" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H159" s="4" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I159" s="4" t="n">
-        <v>135.66</v>
+        <v>119.84</v>
       </c>
       <c r="J159" s="4" t="n">
-        <v>71.65000000000001</v>
+        <v>57.27</v>
       </c>
       <c r="K159" s="4" t="n">
-        <v>94.44</v>
+        <v>100</v>
       </c>
       <c r="L159" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M159" s="5" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="N159" s="5" t="n">
-        <v>8.300000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="O159" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P159" s="4" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="Q159" s="4" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R159" s="4" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="S159" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T159" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T159" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U159" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V159" s="4" t="inlineStr">
         <is>
-          <t>Compra 10/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W159" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>7905120001</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MONTSERRAT</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -15041,71 +15041,71 @@
       </c>
       <c r="E160" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F160" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G160" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H160" s="4" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I160" s="4" t="n">
-        <v>119.84</v>
+        <v>135.66</v>
       </c>
       <c r="J160" s="4" t="n">
-        <v>57.27</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="K160" s="4" t="n">
-        <v>100</v>
+        <v>94.44</v>
       </c>
       <c r="L160" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M160" s="5" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="N160" s="5" t="n">
-        <v>3.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O160" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P160" s="4" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="Q160" s="4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R160" s="4" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="S160" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T160" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T160" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U160" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V160" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 10/04/2025</t>
         </is>
       </c>
       <c r="W160" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -17004,12 +17004,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>7803250003</t>
+          <t>7901010001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ORIGANUM VULGARE</t>
+          <t>FRAGARIA ANANASSA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -17024,12 +17024,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -17039,13 +17039,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>113.34</v>
+        <v>137.54</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>58.42</v>
+        <v>80.42</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>76.67</v>
+        <v>61.33</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -17057,50 +17057,50 @@
         <v>11.2</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>6.67</v>
+        <v>253.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T11" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 2 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/05/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>7901010001</t>
+          <t>7803250003</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA</t>
+          <t>ORIGANUM VULGARE</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -17115,12 +17115,12 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -17130,13 +17130,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>137.54</v>
+        <v>113.34</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>80.42</v>
+        <v>58.42</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>61.33</v>
+        <v>76.67</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -17148,38 +17148,38 @@
         <v>11.2</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P12" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" s="4" t="n">
-        <v>38</v>
-      </c>
       <c r="R12" s="4" t="n">
-        <v>253.33</v>
+        <v>6.67</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T12" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T12" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 2 unidades. Prioridad alta.</t>
+          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 30/05/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -23101,17 +23101,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>7203500001</t>
+          <t>7401250007</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>VERBENA HYBRIDA</t>
+          <t>DIANTHUS PEMAN</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>M15A20</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -23121,12 +23121,12 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
@@ -23136,13 +23136,13 @@
         <v>13</v>
       </c>
       <c r="I78" s="4" t="n">
-        <v>64.87</v>
+        <v>71.37</v>
       </c>
       <c r="J78" s="4" t="n">
-        <v>32.71</v>
+        <v>38.62</v>
       </c>
       <c r="K78" s="4" t="n">
-        <v>92.86</v>
+        <v>43.33</v>
       </c>
       <c r="L78" s="4" t="n">
         <v>0</v>
@@ -23154,16 +23154,16 @@
         <v>3.2</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="P78" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q78" s="4" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="R78" s="4" t="n">
-        <v>186.67</v>
+        <v>400</v>
       </c>
       <c r="S78" s="5" t="n">
         <v>30</v>
@@ -23175,34 +23175,34 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W78" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>7401250007</t>
+          <t>7203500001</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS PEMAN</t>
+          <t>VERBENA HYBRIDA</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M15A20</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -23212,12 +23212,12 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
@@ -23227,13 +23227,13 @@
         <v>13</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>71.37</v>
+        <v>64.87</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>38.62</v>
+        <v>32.71</v>
       </c>
       <c r="K79" s="4" t="n">
-        <v>43.33</v>
+        <v>92.86</v>
       </c>
       <c r="L79" s="4" t="n">
         <v>0</v>
@@ -23245,16 +23245,16 @@
         <v>3.2</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="P79" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q79" s="4" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="R79" s="4" t="n">
-        <v>400</v>
+        <v>186.67</v>
       </c>
       <c r="S79" s="5" t="n">
         <v>30</v>
@@ -23266,17 +23266,17 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W79" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -25831,17 +25831,17 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7804160002</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>MENTHA  PIPERITA CITRATA "CHOCOLATE"</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -25851,88 +25851,88 @@
       </c>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G108" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H108" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I108" s="4" t="n">
-        <v>58.47</v>
+        <v>59.85</v>
       </c>
       <c r="J108" s="4" t="n">
-        <v>31.85</v>
+        <v>33.11</v>
       </c>
       <c r="K108" s="4" t="n">
-        <v>37.5</v>
+        <v>93.75</v>
       </c>
       <c r="L108" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" s="5" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="N108" s="5" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P108" s="4" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q108" s="4" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="R108" s="4" t="n">
-        <v>73.33</v>
+        <v>340</v>
       </c>
       <c r="S108" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T108" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>30</v>
+      </c>
+      <c r="T108" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U108" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V108" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 10/04/2025</t>
         </is>
       </c>
       <c r="W108" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>7804160002</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>MENTHA  PIPERITA CITRATA "CHOCOLATE"</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -25942,71 +25942,71 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G109" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H109" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>59.85</v>
+        <v>58.47</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>33.11</v>
+        <v>31.85</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>93.75</v>
+        <v>37.5</v>
       </c>
       <c r="L109" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109" s="5" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="N109" s="5" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="Q109" s="4" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="R109" s="4" t="n">
-        <v>340</v>
+        <v>73.33</v>
       </c>
       <c r="S109" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T109" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>10</v>
+      </c>
+      <c r="T109" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
         <is>
-          <t>Compra 10/04/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W109" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -26195,17 +26195,17 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>7905040005</t>
+          <t>7905030000</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PIQUILLO</t>
+          <t>APIUM GRAVEOLENS (APIO)</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -26230,13 +26230,13 @@
         <v>19</v>
       </c>
       <c r="I112" s="4" t="n">
-        <v>47.31</v>
+        <v>48.75</v>
       </c>
       <c r="J112" s="4" t="n">
-        <v>22.3</v>
+        <v>23.61</v>
       </c>
       <c r="K112" s="4" t="n">
-        <v>42.22</v>
+        <v>48.72</v>
       </c>
       <c r="L112" s="4" t="n">
         <v>0</v>
@@ -26248,10 +26248,10 @@
         <v>4.6</v>
       </c>
       <c r="O112" s="4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P112" s="4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q112" s="4" t="n">
         <v>50</v>
@@ -26286,17 +26286,17 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>7905030000</t>
+          <t>7905040005</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>APIUM GRAVEOLENS (APIO)</t>
+          <t>PIMIENTO PIQUILLO</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -26321,13 +26321,13 @@
         <v>19</v>
       </c>
       <c r="I113" s="4" t="n">
-        <v>48.75</v>
+        <v>47.31</v>
       </c>
       <c r="J113" s="4" t="n">
-        <v>23.61</v>
+        <v>22.3</v>
       </c>
       <c r="K113" s="4" t="n">
-        <v>48.72</v>
+        <v>42.22</v>
       </c>
       <c r="L113" s="4" t="n">
         <v>0</v>
@@ -26339,10 +26339,10 @@
         <v>4.6</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P113" s="4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q113" s="4" t="n">
         <v>50</v>
@@ -26559,17 +26559,17 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>7901010001</t>
+          <t>7203190001</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA</t>
+          <t>EURYOPS CHRYSANTHEMOIDES</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -26579,88 +26579,88 @@
       </c>
       <c r="E116" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F116" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G116" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H116" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I116" s="4" t="n">
-        <v>69.2</v>
+        <v>53.9</v>
       </c>
       <c r="J116" s="4" t="n">
-        <v>42.91</v>
+        <v>29</v>
       </c>
       <c r="K116" s="4" t="n">
-        <v>100</v>
+        <v>35.71</v>
       </c>
       <c r="L116" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M116" s="5" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N116" s="5" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O116" s="4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P116" s="4" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="Q116" s="4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R116" s="4" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S116" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T116" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T116" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U116" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V116" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W116" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>7203190001</t>
+          <t>7901010001</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>EURYOPS CHRYSANTHEMOIDES</t>
+          <t>FRAGARIA ANANASSA</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -26670,71 +26670,71 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F117" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G117" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H117" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I117" s="4" t="n">
-        <v>53.9</v>
+        <v>69.2</v>
       </c>
       <c r="J117" s="4" t="n">
-        <v>29</v>
+        <v>42.91</v>
       </c>
       <c r="K117" s="4" t="n">
-        <v>35.71</v>
+        <v>100</v>
       </c>
       <c r="L117" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M117" s="5" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="N117" s="5" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O117" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P117" s="4" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="Q117" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R117" s="4" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S117" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T117" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T117" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U117" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V117" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W117" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
@@ -26832,17 +26832,17 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>7201480001</t>
+          <t>7201400001</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA OFFICINALIS</t>
+          <t>PORTULACA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M13A35</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -26864,76 +26864,76 @@
         <v>15</v>
       </c>
       <c r="H119" s="4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I119" s="4" t="n">
-        <v>55.86</v>
+        <v>44.28</v>
       </c>
       <c r="J119" s="4" t="n">
-        <v>31.46</v>
+        <v>20.93</v>
       </c>
       <c r="K119" s="4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L119" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M119" s="5" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="N119" s="5" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O119" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P119" s="4" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Q119" s="4" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="R119" s="4" t="n">
-        <v>400</v>
+        <v>26.67</v>
       </c>
       <c r="S119" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T119" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T119" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U119" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
         </is>
       </c>
       <c r="V119" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W119" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>7201400001</t>
+          <t>7201480001</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA GRANDIFLORA</t>
+          <t>CALENDULA OFFICINALIS</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>M13A35</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -26955,59 +26955,59 @@
         <v>15</v>
       </c>
       <c r="H120" s="4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I120" s="4" t="n">
-        <v>44.28</v>
+        <v>55.86</v>
       </c>
       <c r="J120" s="4" t="n">
-        <v>20.93</v>
+        <v>31.46</v>
       </c>
       <c r="K120" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L120" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M120" s="5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N120" s="5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O120" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P120" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q120" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="L120" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M120" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" s="5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O120" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="P120" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="4" t="n">
-        <v>4</v>
-      </c>
       <c r="R120" s="4" t="n">
-        <v>26.67</v>
+        <v>400</v>
       </c>
       <c r="S120" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T120" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T120" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U120" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V120" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W120" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -27833,17 +27833,17 @@
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>7201530006</t>
+          <t>7401500001</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>HYACINTHUS ORIENTALIS</t>
+          <t>LEUCANTHEMUM PALUDOSUM</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>M7A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
@@ -27853,88 +27853,88 @@
       </c>
       <c r="E130" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F130" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G130" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H130" s="4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I130" s="4" t="n">
-        <v>47.76</v>
+        <v>55.72</v>
       </c>
       <c r="J130" s="4" t="n">
-        <v>24.94</v>
+        <v>32.17</v>
       </c>
       <c r="K130" s="4" t="n">
-        <v>0</v>
+        <v>58.33</v>
       </c>
       <c r="L130" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M130" s="5" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N130" s="5" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="O130" s="4" t="n">
-        <v>-24</v>
+        <v>20</v>
       </c>
       <c r="P130" s="4" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="Q130" s="4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R130" s="4" t="n">
-        <v>0</v>
+        <v>73.33</v>
       </c>
       <c r="S130" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T130" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T130" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U130" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -24 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V130" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W130" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>7401500001</t>
+          <t>7201530006</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>LEUCANTHEMUM PALUDOSUM</t>
+          <t>HYACINTHUS ORIENTALIS</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M7A15</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
@@ -27944,71 +27944,71 @@
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F131" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G131" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H131" s="4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I131" s="4" t="n">
-        <v>55.72</v>
+        <v>47.76</v>
       </c>
       <c r="J131" s="4" t="n">
-        <v>32.17</v>
+        <v>24.94</v>
       </c>
       <c r="K131" s="4" t="n">
-        <v>58.33</v>
+        <v>0</v>
       </c>
       <c r="L131" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M131" s="5" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N131" s="5" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="O131" s="4" t="n">
-        <v>20</v>
+        <v>-24</v>
       </c>
       <c r="P131" s="4" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Q131" s="4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R131" s="4" t="n">
-        <v>73.33</v>
+        <v>0</v>
       </c>
       <c r="S131" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T131" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T131" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U131" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -24 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V131" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W131" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -28106,17 +28106,17 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>7201040000</t>
+          <t>7905040021</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>SUTERA HYBRIDA</t>
+          <t>PIMIENTO PICANTE CHILE POBLANO</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
@@ -28126,12 +28126,12 @@
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F133" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G133" s="4" t="n">
@@ -28141,16 +28141,16 @@
         <v>14</v>
       </c>
       <c r="I133" s="4" t="n">
-        <v>41.3</v>
+        <v>41.86</v>
       </c>
       <c r="J133" s="4" t="n">
-        <v>19.49</v>
+        <v>19.99</v>
       </c>
       <c r="K133" s="4" t="n">
-        <v>93.33</v>
+        <v>46.67</v>
       </c>
       <c r="L133" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M133" s="5" t="n">
         <v>1.1</v>
@@ -28159,16 +28159,16 @@
         <v>3.4</v>
       </c>
       <c r="O133" s="4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P133" s="4" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Q133" s="4" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R133" s="4" t="n">
-        <v>306.67</v>
+        <v>333.33</v>
       </c>
       <c r="S133" s="5" t="n">
         <v>30</v>
@@ -28180,17 +28180,17 @@
       </c>
       <c r="U133" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V133" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/04/2025</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W133" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -28288,17 +28288,17 @@
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>7905040021</t>
+          <t>7201040000</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE CHILE POBLANO</t>
+          <t>SUTERA HYBRIDA</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -28308,12 +28308,12 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F135" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G135" s="4" t="n">
@@ -28323,16 +28323,16 @@
         <v>14</v>
       </c>
       <c r="I135" s="4" t="n">
-        <v>41.86</v>
+        <v>41.3</v>
       </c>
       <c r="J135" s="4" t="n">
-        <v>19.99</v>
+        <v>19.49</v>
       </c>
       <c r="K135" s="4" t="n">
-        <v>46.67</v>
+        <v>93.33</v>
       </c>
       <c r="L135" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135" s="5" t="n">
         <v>1.1</v>
@@ -28341,16 +28341,16 @@
         <v>3.4</v>
       </c>
       <c r="O135" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P135" s="4" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Q135" s="4" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R135" s="4" t="n">
-        <v>333.33</v>
+        <v>306.67</v>
       </c>
       <c r="S135" s="5" t="n">
         <v>30</v>
@@ -28362,17 +28362,17 @@
       </c>
       <c r="U135" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V135" s="4" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Compra 15/04/2025</t>
         </is>
       </c>
       <c r="W135" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -28470,17 +28470,17 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>7905120018</t>
+          <t>7401520000</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MONTERROSA</t>
+          <t>LITHODORA DIFUSA</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>M12A30</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -28490,88 +28490,88 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G137" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H137" s="4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I137" s="4" t="n">
-        <v>41.88</v>
+        <v>44.55</v>
       </c>
       <c r="J137" s="4" t="n">
-        <v>20.07</v>
+        <v>22.5</v>
       </c>
       <c r="K137" s="4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L137" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M137" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N137" s="5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O137" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N137" s="5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O137" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="P137" s="4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q137" s="4" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="R137" s="4" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="S137" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T137" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T137" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U137" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V137" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 20/03/2025</t>
         </is>
       </c>
       <c r="W137" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>7401520000</t>
+          <t>7905120018</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>LITHODORA DIFUSA</t>
+          <t>TOMATE MONTERROSA</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M12A30</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -28581,71 +28581,71 @@
       </c>
       <c r="E138" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F138" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G138" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H138" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I138" s="4" t="n">
-        <v>44.55</v>
+        <v>41.88</v>
       </c>
       <c r="J138" s="4" t="n">
-        <v>22.5</v>
+        <v>20.07</v>
       </c>
       <c r="K138" s="4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L138" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M138" s="5" t="n">
-        <v>0.7</v>
-      </c>
       <c r="N138" s="5" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O138" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P138" s="4" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q138" s="4" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="R138" s="4" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="S138" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T138" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T138" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U138" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V138" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W138" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
@@ -28743,17 +28743,17 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>7905130008</t>
+          <t>7905120023</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>GUISANTE MATA BAJA</t>
+          <t>TOMATE MONTECARLO</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M12A30</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -28775,59 +28775,59 @@
         <v>15</v>
       </c>
       <c r="H140" s="4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I140" s="4" t="n">
-        <v>42.4</v>
+        <v>41.36</v>
       </c>
       <c r="J140" s="4" t="n">
-        <v>20.79</v>
+        <v>19.84</v>
       </c>
       <c r="K140" s="4" t="n">
-        <v>76.19</v>
+        <v>100</v>
       </c>
       <c r="L140" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M140" s="5" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="N140" s="5" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="O140" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P140" s="4" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="Q140" s="4" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="R140" s="4" t="n">
-        <v>586.67</v>
+        <v>0</v>
       </c>
       <c r="S140" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T140" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T140" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U140" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V140" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W140" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
@@ -28997,17 +28997,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>7905120023</t>
+          <t>7905130008</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MONTECARLO</t>
+          <t>GUISANTE MATA BAJA</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M12A30</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -29029,59 +29029,59 @@
         <v>15</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>41.36</v>
+        <v>42.4</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>19.84</v>
+        <v>20.79</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>100</v>
+        <v>76.19</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>586.67</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T2" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
+          <t>LIQUIDACIÓN PARCIAL: Aplicar descuento 30% a stock actual. Reducir compras 50% próxima temporada. Producto de baja rotación confirmada.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
         <is>
-          <t>26D</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -31181,12 +31181,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>7904120002</t>
+          <t>7905080000</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA HOJA ROBLE</t>
+          <t>SANDIA RALLADA CRIMSOM SWEET</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -31216,13 +31216,13 @@
         <v>8</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>31.92</v>
+        <v>39.92</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>14.78</v>
+        <v>22.05</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>0</v>
@@ -31234,50 +31234,50 @@
         <v>2</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>8</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T26" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>7905080000</t>
+          <t>7904120002</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>SANDIA RALLADA CRIMSOM SWEET</t>
+          <t>LECHUGA HOJA ROBLE</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -31307,13 +31307,13 @@
         <v>8</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>39.92</v>
+        <v>31.92</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>22.05</v>
+        <v>14.78</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -31325,38 +31325,38 @@
         <v>2</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>8</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T27" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T27" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
@@ -32000,17 +32000,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>7905120015</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CHERRY NEGRO</t>
+          <t>DIANTHUS CARYOPHYLUS MINI</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>JAR25A25</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -32020,49 +32020,49 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>29.88</v>
+        <v>38.85</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>13.72</v>
+        <v>21.88</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M35" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N35" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O35" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N35" s="5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O35" s="4" t="n">
-        <v>3</v>
-      </c>
       <c r="P35" s="4" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>413.33</v>
+        <v>586.67</v>
       </c>
       <c r="S35" s="5" t="n">
         <v>30</v>
@@ -32074,34 +32074,34 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
+          <t>LIQUIDACIÓN PARCIAL: Aplicar descuento 30% a stock actual. Reducir compras 50% próxima temporada. Producto de baja rotación confirmada.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7905120015</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARYOPHYLUS MINI</t>
+          <t>TOMATE CHERRY NEGRO</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>JAR25A25</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -32111,49 +32111,49 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H36" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J36" s="4" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="K36" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="L36" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I36" s="4" t="n">
-        <v>38.85</v>
-      </c>
-      <c r="J36" s="4" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="K36" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="L36" s="4" t="n">
+      <c r="M36" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M36" s="5" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N36" s="5" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P36" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q36" s="4" t="n">
         <v>62</v>
       </c>
-      <c r="Q36" s="4" t="n">
-        <v>88</v>
-      </c>
       <c r="R36" s="4" t="n">
-        <v>586.67</v>
+        <v>413.33</v>
       </c>
       <c r="S36" s="5" t="n">
         <v>30</v>
@@ -32165,17 +32165,17 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN PARCIAL: Aplicar descuento 30% a stock actual. Reducir compras 50% próxima temporada. Producto de baja rotación confirmada.</t>
+          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -35640,17 +35640,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>7904120006</t>
+          <t>7804250004</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA COGOLLO</t>
+          <t>CURCUMA LONGA</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>2LA31</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -35660,88 +35660,88 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H75" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>19.95</v>
+        <v>21.9</v>
       </c>
       <c r="J75" s="4" t="n">
-        <v>9.24</v>
+        <v>11.01</v>
       </c>
       <c r="K75" s="4" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N75" s="5" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="P75" s="4" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="Q75" s="4" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="R75" s="4" t="n">
-        <v>313.33</v>
+        <v>0</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T75" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T75" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W75" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>7804250004</t>
+          <t>7904120006</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA LONGA</t>
+          <t>LECHUGA COGOLLO</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>2LA31</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -35751,71 +35751,71 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H76" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I76" s="4" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="J76" s="4" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="K76" s="4" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="L76" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" s="5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N76" s="5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O76" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P76" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I76" s="4" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="J76" s="4" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K76" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N76" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O76" s="4" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P76" s="4" t="n">
-        <v>34</v>
-      </c>
       <c r="Q76" s="4" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="R76" s="4" t="n">
-        <v>0</v>
+        <v>313.33</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T76" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 14/04/2025</t>
         </is>
       </c>
       <c r="W76" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -37005,17 +37005,17 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7905020001</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
+          <t>BERENJENA ALMAGRO</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -37025,88 +37025,88 @@
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H90" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I90" s="4" t="n">
-        <v>23.88</v>
+        <v>19.92</v>
       </c>
       <c r="J90" s="4" t="n">
-        <v>14.03</v>
+        <v>10.43</v>
       </c>
       <c r="K90" s="4" t="n">
-        <v>0</v>
+        <v>26.67</v>
       </c>
       <c r="L90" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M90" s="5" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N90" s="5" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>-12</v>
+        <v>22</v>
       </c>
       <c r="P90" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q90" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R90" s="4" t="n">
-        <v>0</v>
+        <v>333.33</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T90" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T90" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -12 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W90" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>7905020001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA ALMAGRO</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -37116,71 +37116,71 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H91" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I91" s="4" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="J91" s="4" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="K91" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" s="5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O91" s="4" t="n">
+        <v>-12</v>
+      </c>
+      <c r="P91" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="I91" s="4" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="J91" s="4" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="K91" s="4" t="n">
-        <v>26.67</v>
-      </c>
-      <c r="L91" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" s="5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N91" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O91" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="P91" s="4" t="n">
-        <v>5</v>
-      </c>
       <c r="Q91" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R91" s="4" t="n">
-        <v>333.33</v>
+        <v>0</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T91" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T91" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -12 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W91" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -37460,12 +37460,12 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7201400001</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
+          <t>PORTULACA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -37516,7 +37516,7 @@
         <v>3</v>
       </c>
       <c r="P95" s="4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q95" s="4" t="n">
         <v>18</v>
@@ -37551,12 +37551,12 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>7201400001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA GRANDIFLORA</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -37607,7 +37607,7 @@
         <v>3</v>
       </c>
       <c r="P96" s="4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q96" s="4" t="n">
         <v>18</v>
@@ -41191,17 +41191,17 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>7104100001</t>
+          <t>7401460000</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>PRIMULA ACAULIS MEZCLA PACK 4</t>
+          <t>IBERIS SEMPERVIRENS</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>PACK4</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -41211,43 +41211,43 @@
       </c>
       <c r="E136" s="4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G136" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H136" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" s="4" t="n">
-        <v>6.99</v>
+        <v>11</v>
       </c>
       <c r="J136" s="4" t="n">
-        <v>3.09</v>
+        <v>6.74</v>
       </c>
       <c r="K136" s="4" t="n">
-        <v>25</v>
+        <v>33.33</v>
       </c>
       <c r="L136" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M136" s="5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N136" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O136" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P136" s="4" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="Q136" s="4" t="n">
         <v>92</v>
@@ -41265,7 +41265,7 @@
       </c>
       <c r="U136" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.03€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V136" s="4" t="inlineStr">
@@ -41282,17 +41282,17 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>7401460000</t>
+          <t>7104100001</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>IBERIS SEMPERVIRENS</t>
+          <t>PRIMULA ACAULIS MEZCLA PACK 4</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>PACK4</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -41302,43 +41302,43 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
         </is>
       </c>
       <c r="G137" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H137" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" s="4" t="n">
-        <v>11</v>
+        <v>6.99</v>
       </c>
       <c r="J137" s="4" t="n">
-        <v>6.74</v>
+        <v>3.09</v>
       </c>
       <c r="K137" s="4" t="n">
-        <v>33.33</v>
+        <v>25</v>
       </c>
       <c r="L137" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M137" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N137" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="N137" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O137" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P137" s="4" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="Q137" s="4" t="n">
         <v>92</v>
@@ -41356,7 +41356,7 @@
       </c>
       <c r="U137" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.03€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V137" s="4" t="inlineStr">
@@ -42101,17 +42101,17 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>7206030004</t>
+          <t>7401250011</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM ABANICO</t>
+          <t>DIANTHUS HYBRIDA</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>M14A50</t>
+          <t>1I6LA40</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -42121,12 +42121,12 @@
       </c>
       <c r="E146" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F146" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G146" s="4" t="n">
@@ -42136,10 +42136,10 @@
         <v>1</v>
       </c>
       <c r="I146" s="4" t="n">
-        <v>6.99</v>
+        <v>7.99</v>
       </c>
       <c r="J146" s="4" t="n">
-        <v>3.55</v>
+        <v>4.46</v>
       </c>
       <c r="K146" s="4" t="n">
         <v>0</v>
@@ -42157,7 +42157,7 @@
         <v>-1</v>
       </c>
       <c r="P146" s="4" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="Q146" s="4" t="n">
         <v>0</v>
@@ -42192,17 +42192,17 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>7401250011</t>
+          <t>7206030004</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS HYBRIDA</t>
+          <t>CYCLAMEN PERSICUM ABANICO</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>1I6LA40</t>
+          <t>M14A50</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -42212,12 +42212,12 @@
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F147" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G147" s="4" t="n">
@@ -42227,10 +42227,10 @@
         <v>1</v>
       </c>
       <c r="I147" s="4" t="n">
-        <v>7.99</v>
+        <v>6.99</v>
       </c>
       <c r="J147" s="4" t="n">
-        <v>4.46</v>
+        <v>3.55</v>
       </c>
       <c r="K147" s="4" t="n">
         <v>0</v>
@@ -42248,7 +42248,7 @@
         <v>-1</v>
       </c>
       <c r="P147" s="4" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="Q147" s="4" t="n">
         <v>0</v>
@@ -42912,42 +42912,42 @@
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>7905100001</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>ACELGA</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>AMARILLO</t>
         </is>
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F155" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G155" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H155" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" s="4" t="n">
-        <v>4.98</v>
+        <v>4.99</v>
       </c>
       <c r="J155" s="4" t="n">
         <v>2.56</v>
@@ -42959,16 +42959,16 @@
         <v>0</v>
       </c>
       <c r="M155" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N155" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="N155" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O155" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P155" s="4" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q155" s="4" t="n">
         <v>0</v>
@@ -42986,7 +42986,7 @@
       </c>
       <c r="U155" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V155" s="4" t="inlineStr">
@@ -43003,42 +43003,42 @@
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7905100001</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>ACELGA</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E156" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F156" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G156" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H156" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" s="4" t="n">
-        <v>4.99</v>
+        <v>4.98</v>
       </c>
       <c r="J156" s="4" t="n">
         <v>2.56</v>
@@ -43050,16 +43050,16 @@
         <v>0</v>
       </c>
       <c r="M156" s="5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N156" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O156" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P156" s="4" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="Q156" s="4" t="n">
         <v>0</v>
@@ -43077,7 +43077,7 @@
       </c>
       <c r="U156" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V156" s="4" t="inlineStr">
@@ -43367,12 +43367,12 @@
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>7905130003</t>
+          <t>7905130002</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>COL BRUSELAS</t>
+          <t>BROCOLI VERDE</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -43423,7 +43423,7 @@
         <v>-1</v>
       </c>
       <c r="P160" s="4" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q160" s="4" t="n">
         <v>0</v>
@@ -43458,12 +43458,12 @@
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>7905130002</t>
+          <t>7905130003</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>BROCOLI VERDE</t>
+          <t>COL BRUSELAS</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
@@ -43514,7 +43514,7 @@
         <v>-1</v>
       </c>
       <c r="P161" s="4" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q161" s="4" t="n">
         <v>0</v>
@@ -44341,17 +44341,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>7504010002</t>
+          <t>7904120005</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>PERICALLIS HYBRIDA "SENETTI BABY"</t>
+          <t>LECHUGA ICEBERG</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>C17A35</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -44361,12 +44361,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -44385,7 +44385,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -44394,19 +44394,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>26.67</v>
+        <v>613.33</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
@@ -44415,12 +44415,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -44432,17 +44432,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>7803030001</t>
+          <t>7804230001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>OCIMUM BASILICUM "MINIMUM"</t>
+          <t>THYMUS VULGARIS COMPACTUS</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>C16A15</t>
+          <t>C17A30</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -44523,17 +44523,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>7901010004</t>
+          <t>7401740013</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA RED ROSE MIAM</t>
+          <t>AUBRIETA X CULTORUM</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>1LA30</t>
+          <t>M13A30</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -44543,12 +44543,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -44567,7 +44567,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -44576,19 +44576,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>73.33</v>
+        <v>613.33</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -44597,12 +44597,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -44614,17 +44614,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>7203230001</t>
+          <t>7805020002</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>GERBERA HYBRIDS</t>
+          <t>LAVANDULA DENTATA VAR. CANDICANS</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>2LA35</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -44634,12 +44634,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -44658,7 +44658,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -44667,19 +44667,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>73.33</v>
+        <v>586.67</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -44688,12 +44688,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -44705,17 +44705,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>7803250003</t>
+          <t>7503010005</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ORIGANUM VULGARE</t>
+          <t>DENDRANTHEMA X GRANDIFLORUM</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M13A30</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -44725,12 +44725,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -44749,7 +44749,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -44758,16 +44758,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>6.67</v>
+        <v>26.67</v>
       </c>
       <c r="S6" s="5" t="n">
         <v>0</v>
@@ -44784,7 +44784,7 @@
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/05/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -44796,17 +44796,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -44816,12 +44816,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -44840,7 +44840,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -44849,19 +44849,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>26.67</v>
+        <v>613.33</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
@@ -44870,12 +44870,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -44887,17 +44887,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7205090002</t>
+          <t>7206020004</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>VIOLA X WITROCKIANA</t>
+          <t>CHRYSANTHEMUN IND CARNAVAL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>T23A15</t>
+          <t>M12A25</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -44961,7 +44961,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.96€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -45069,17 +45069,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>7401290001</t>
+          <t>7202520006</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ERYSIMUM HYBRIDUM</t>
+          <t>TROPAEOLUM MAJUS</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>2LA20</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -45089,12 +45089,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -45113,7 +45113,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -45122,19 +45122,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>73.33</v>
+        <v>6.67</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
@@ -45143,12 +45143,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 30/05/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -45160,17 +45160,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>7401740046</t>
+          <t>7205090002</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>GLYCYRRHIZA GLABRA (REGALIZ)</t>
+          <t>VIOLA X WITROCKIANA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>T23A15</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -45180,12 +45180,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -45204,7 +45204,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -45213,16 +45213,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>166.67</v>
+        <v>613.33</v>
       </c>
       <c r="S11" s="5" t="n">
         <v>30</v>
@@ -45234,12 +45234,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -45251,17 +45251,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>7805020002</t>
+          <t>7504010002</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA DENTATA VAR. CANDICANS</t>
+          <t>PERICALLIS HYBRIDA "SENETTI BABY"</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>C17A35</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -45271,12 +45271,12 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -45295,7 +45295,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -45304,19 +45304,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>586.67</v>
+        <v>26.67</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T12" s="8" t="inlineStr">
         <is>
@@ -45325,12 +45325,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -45342,17 +45342,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>7804230001</t>
+          <t>7203230001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>THYMUS VULGARIS COMPACTUS</t>
+          <t>GERBERA HYBRIDS</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>C17A30</t>
+          <t>2LA35</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -45362,12 +45362,12 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -45401,13 +45401,13 @@
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>26.67</v>
+        <v>73.33</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T13" s="8" t="inlineStr">
         <is>
@@ -45416,12 +45416,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -45433,17 +45433,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>7203500003</t>
+          <t>7804160002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>VERBENA BONARIENSIS</t>
+          <t>MENTHA PIPERITA CITRATA "CHOCOLATE"</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -45453,12 +45453,12 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -45477,7 +45477,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -45486,16 +45486,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>253.33</v>
+        <v>613.33</v>
       </c>
       <c r="S14" s="5" t="n">
         <v>30</v>
@@ -45507,12 +45507,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.56€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -45524,17 +45524,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>7401740013</t>
+          <t>7401290001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>AUBRIETA X CULTORUM</t>
+          <t>ERYSIMUM HYBRIDUM</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>M13A30</t>
+          <t>2LA20</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -45568,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -45577,19 +45577,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>613.33</v>
+        <v>73.33</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
@@ -45598,12 +45598,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -45615,17 +45615,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>7804250002</t>
+          <t>7401050001</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
+          <t>LOBULARIA MARITIMA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M15A30</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -45635,12 +45635,12 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -45659,7 +45659,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -45668,19 +45668,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>186.67</v>
+        <v>26.67</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
@@ -45689,12 +45689,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -45706,17 +45706,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>7805110002</t>
+          <t>7804250002</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>SALVIA LEUCANTHA</t>
+          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -45750,7 +45750,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -45759,16 +45759,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>613.33</v>
+        <v>186.67</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>30</v>
@@ -45780,12 +45780,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -45797,17 +45797,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>7804160002</t>
+          <t>7203500003</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>MENTHA PIPERITA CITRATA "CHOCOLATE"</t>
+          <t>VERBENA BONARIENSIS</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -45817,12 +45817,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -45841,7 +45841,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -45850,16 +45850,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>613.33</v>
+        <v>253.33</v>
       </c>
       <c r="S18" s="5" t="n">
         <v>30</v>
@@ -45871,12 +45871,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.56€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -45888,17 +45888,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>7202520006</t>
+          <t>7805110002</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>TROPAEOLUM MAJUS</t>
+          <t>SALVIA LEUCANTHA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -45908,12 +45908,12 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -45932,7 +45932,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -45941,19 +45941,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>6.67</v>
+        <v>613.33</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
@@ -45962,12 +45962,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -46070,17 +46070,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>7401050001</t>
+          <t>7803030001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>LOBULARIA MARITIMA</t>
+          <t>OCIMUM BASILICUM "MINIMUM"</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>M15A30</t>
+          <t>C16A15</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -46090,12 +46090,12 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -46114,7 +46114,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -46123,7 +46123,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
@@ -46161,17 +46161,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>7206020004</t>
+          <t>7901010004</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN IND CARNAVAL</t>
+          <t>FRAGARIA ANANASSA - FRESA RED ROSE MIAM</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>M12A25</t>
+          <t>1LA30</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -46181,12 +46181,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -46205,7 +46205,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -46214,19 +46214,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>613.33</v>
+        <v>73.33</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T22" s="8" t="inlineStr">
         <is>
@@ -46235,12 +46235,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.96€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -46252,17 +46252,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>7904120005</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ICEBERG</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -46272,12 +46272,12 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -46296,7 +46296,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -46305,19 +46305,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>613.33</v>
+        <v>26.67</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
@@ -46326,12 +46326,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -46343,17 +46343,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>7503010005</t>
+          <t>7803250003</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>DENDRANTHEMA X GRANDIFLORUM</t>
+          <t>ORIGANUM VULGARE</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>M13A30</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -46363,12 +46363,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -46387,7 +46387,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -46396,16 +46396,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>26.67</v>
+        <v>6.67</v>
       </c>
       <c r="S24" s="5" t="n">
         <v>0</v>
@@ -46422,7 +46422,7 @@
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 30/05/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -46434,17 +46434,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7401740046</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>GLYCYRRHIZA GLABRA (REGALIZ)</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -46454,12 +46454,12 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -46478,7 +46478,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -46487,16 +46487,16 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>613.33</v>
+        <v>166.67</v>
       </c>
       <c r="S25" s="5" t="n">
         <v>30</v>
@@ -46508,12 +46508,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_MAF_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MAF_P2_2025.xlsx
@@ -5375,12 +5375,12 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>7905120004</t>
+          <t>7905040000</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>TOMATE RAF</t>
+          <t>PEPINO</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -5410,13 +5410,13 @@
         <v>110</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>273.9</v>
+        <v>279.1</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>142.3</v>
+        <v>147.03</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>61.11</v>
+        <v>75.34</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -5428,50 +5428,50 @@
         <v>26.9</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>213.33</v>
+        <v>120</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T54" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T54" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 4 unidades. Prioridad alta.</t>
+          <t>DESCUENTO LEVE + OPTIMIZACIÓN: Aplicar descuento 20% para renovar inventario. Reducir compras 15% próxima temporada.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>7905040000</t>
+          <t>7905120004</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>PEPINO</t>
+          <t>TOMATE RAF</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -5501,13 +5501,13 @@
         <v>110</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>279.1</v>
+        <v>273.9</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>147.03</v>
+        <v>142.3</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>75.34</v>
+        <v>61.11</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -5519,38 +5519,38 @@
         <v>26.9</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>120</v>
+        <v>213.33</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T55" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T55" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO LEVE + OPTIMIZACIÓN: Aplicar descuento 20% para renovar inventario. Reducir compras 15% próxima temporada.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 4 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10380,17 +10380,17 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>7805010002</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>OCIMUN BASILICUM GRAND VERT</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -10415,16 +10415,16 @@
         <v>48</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>232.8</v>
+        <v>222.04</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>144.44</v>
+        <v>134.65</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>75</v>
+        <v>46.6</v>
       </c>
       <c r="L109" s="4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M109" s="5" t="n">
         <v>3.9</v>
@@ -10433,10 +10433,10 @@
         <v>11.7</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q109" s="4" t="n">
         <v>25</v>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 2 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
@@ -10464,24 +10464,24 @@
       </c>
       <c r="W109" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7805010002</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>OCIMUN BASILICUM GRAND VERT</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -10506,16 +10506,16 @@
         <v>48</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>222.04</v>
+        <v>232.8</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>134.65</v>
+        <v>144.44</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>46.6</v>
+        <v>75</v>
       </c>
       <c r="L110" s="4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M110" s="5" t="n">
         <v>3.9</v>
@@ -10524,10 +10524,10 @@
         <v>11.7</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q110" s="4" t="n">
         <v>25</v>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 2 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
@@ -10555,7 +10555,7 @@
       </c>
       <c r="W110" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -15749,17 +15749,17 @@
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>7803100001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>CORIANDRUM SATIVUM (CILANTRO)</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -15769,88 +15769,88 @@
       </c>
       <c r="E168" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F168" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G168" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H168" s="4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I168" s="4" t="n">
-        <v>118.37</v>
+        <v>148.45</v>
       </c>
       <c r="J168" s="4" t="n">
-        <v>59.61</v>
+        <v>86.95</v>
       </c>
       <c r="K168" s="4" t="n">
-        <v>106.38</v>
+        <v>83.33</v>
       </c>
       <c r="L168" s="4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M168" s="5" t="n">
-        <v>4.1</v>
+        <v>6.1</v>
       </c>
       <c r="N168" s="5" t="n">
-        <v>12.2</v>
+        <v>18.3</v>
       </c>
       <c r="O168" s="4" t="n">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="P168" s="4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="Q168" s="4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R168" s="4" t="n">
-        <v>0</v>
+        <v>186.67</v>
       </c>
       <c r="S168" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T168" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T168" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U168" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V168" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W168" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7803100001</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>CORIANDRUM SATIVUM (CILANTRO)</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
@@ -15860,71 +15860,71 @@
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F169" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G169" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H169" s="4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I169" s="4" t="n">
-        <v>148.45</v>
+        <v>118.37</v>
       </c>
       <c r="J169" s="4" t="n">
-        <v>86.95</v>
+        <v>59.61</v>
       </c>
       <c r="K169" s="4" t="n">
-        <v>83.33</v>
+        <v>106.38</v>
       </c>
       <c r="L169" s="4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M169" s="5" t="n">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
       <c r="N169" s="5" t="n">
-        <v>18.3</v>
+        <v>12.2</v>
       </c>
       <c r="O169" s="4" t="n">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="P169" s="4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q169" s="4" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R169" s="4" t="n">
-        <v>186.67</v>
+        <v>0</v>
       </c>
       <c r="S169" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T169" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T169" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U169" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V169" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W169" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -25831,17 +25831,17 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>7804160002</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>MENTHA  PIPERITA CITRATA "CHOCOLATE"</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -25851,88 +25851,88 @@
       </c>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G108" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H108" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I108" s="4" t="n">
-        <v>59.85</v>
+        <v>58.47</v>
       </c>
       <c r="J108" s="4" t="n">
-        <v>33.11</v>
+        <v>31.85</v>
       </c>
       <c r="K108" s="4" t="n">
-        <v>93.75</v>
+        <v>37.5</v>
       </c>
       <c r="L108" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108" s="5" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="N108" s="5" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P108" s="4" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="Q108" s="4" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="R108" s="4" t="n">
-        <v>340</v>
+        <v>73.33</v>
       </c>
       <c r="S108" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T108" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>10</v>
+      </c>
+      <c r="T108" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U108" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V108" s="4" t="inlineStr">
         <is>
-          <t>Compra 10/04/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W108" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7804160002</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>MENTHA  PIPERITA CITRATA "CHOCOLATE"</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -25942,71 +25942,71 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G109" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H109" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>58.47</v>
+        <v>59.85</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>31.85</v>
+        <v>33.11</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>37.5</v>
+        <v>93.75</v>
       </c>
       <c r="L109" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" s="5" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="N109" s="5" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q109" s="4" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="R109" s="4" t="n">
-        <v>73.33</v>
+        <v>340</v>
       </c>
       <c r="S109" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T109" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>30</v>
+      </c>
+      <c r="T109" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 10/04/2025</t>
         </is>
       </c>
       <c r="W109" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -26195,17 +26195,17 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>7905030000</t>
+          <t>7905040005</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>APIUM GRAVEOLENS (APIO)</t>
+          <t>PIMIENTO PIQUILLO</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -26230,13 +26230,13 @@
         <v>19</v>
       </c>
       <c r="I112" s="4" t="n">
-        <v>48.75</v>
+        <v>47.31</v>
       </c>
       <c r="J112" s="4" t="n">
-        <v>23.61</v>
+        <v>22.3</v>
       </c>
       <c r="K112" s="4" t="n">
-        <v>48.72</v>
+        <v>42.22</v>
       </c>
       <c r="L112" s="4" t="n">
         <v>0</v>
@@ -26248,10 +26248,10 @@
         <v>4.6</v>
       </c>
       <c r="O112" s="4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P112" s="4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q112" s="4" t="n">
         <v>50</v>
@@ -26286,17 +26286,17 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>7905040005</t>
+          <t>7905030000</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PIQUILLO</t>
+          <t>APIUM GRAVEOLENS (APIO)</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -26321,13 +26321,13 @@
         <v>19</v>
       </c>
       <c r="I113" s="4" t="n">
-        <v>47.31</v>
+        <v>48.75</v>
       </c>
       <c r="J113" s="4" t="n">
-        <v>22.3</v>
+        <v>23.61</v>
       </c>
       <c r="K113" s="4" t="n">
-        <v>42.22</v>
+        <v>48.72</v>
       </c>
       <c r="L113" s="4" t="n">
         <v>0</v>
@@ -26339,10 +26339,10 @@
         <v>4.6</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P113" s="4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q113" s="4" t="n">
         <v>50</v>
@@ -26832,17 +26832,17 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>7201400001</t>
+          <t>7201480001</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA GRANDIFLORA</t>
+          <t>CALENDULA OFFICINALIS</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>M13A35</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -26864,76 +26864,76 @@
         <v>15</v>
       </c>
       <c r="H119" s="4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I119" s="4" t="n">
-        <v>44.28</v>
+        <v>55.86</v>
       </c>
       <c r="J119" s="4" t="n">
-        <v>20.93</v>
+        <v>31.46</v>
       </c>
       <c r="K119" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L119" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M119" s="5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N119" s="5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O119" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P119" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q119" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="L119" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M119" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" s="5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O119" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="P119" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="4" t="n">
-        <v>4</v>
-      </c>
       <c r="R119" s="4" t="n">
-        <v>26.67</v>
+        <v>400</v>
       </c>
       <c r="S119" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T119" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T119" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U119" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V119" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W119" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>7201480001</t>
+          <t>7201400001</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA OFFICINALIS</t>
+          <t>PORTULACA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M13A35</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -26955,59 +26955,59 @@
         <v>15</v>
       </c>
       <c r="H120" s="4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I120" s="4" t="n">
-        <v>55.86</v>
+        <v>44.28</v>
       </c>
       <c r="J120" s="4" t="n">
-        <v>31.46</v>
+        <v>20.93</v>
       </c>
       <c r="K120" s="4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L120" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M120" s="5" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="N120" s="5" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O120" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P120" s="4" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Q120" s="4" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="R120" s="4" t="n">
-        <v>400</v>
+        <v>26.67</v>
       </c>
       <c r="S120" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T120" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T120" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U120" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
         </is>
       </c>
       <c r="V120" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W120" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -27833,17 +27833,17 @@
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>7401500001</t>
+          <t>7201530006</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>LEUCANTHEMUM PALUDOSUM</t>
+          <t>HYACINTHUS ORIENTALIS</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M7A15</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
@@ -27853,88 +27853,88 @@
       </c>
       <c r="E130" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F130" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G130" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H130" s="4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I130" s="4" t="n">
-        <v>55.72</v>
+        <v>47.76</v>
       </c>
       <c r="J130" s="4" t="n">
-        <v>32.17</v>
+        <v>24.94</v>
       </c>
       <c r="K130" s="4" t="n">
-        <v>58.33</v>
+        <v>0</v>
       </c>
       <c r="L130" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M130" s="5" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N130" s="5" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="O130" s="4" t="n">
-        <v>20</v>
+        <v>-24</v>
       </c>
       <c r="P130" s="4" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Q130" s="4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R130" s="4" t="n">
-        <v>73.33</v>
+        <v>0</v>
       </c>
       <c r="S130" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T130" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T130" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U130" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -24 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V130" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W130" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>7201530006</t>
+          <t>7401500001</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>HYACINTHUS ORIENTALIS</t>
+          <t>LEUCANTHEMUM PALUDOSUM</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>M7A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
@@ -27944,71 +27944,71 @@
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F131" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G131" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H131" s="4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I131" s="4" t="n">
-        <v>47.76</v>
+        <v>55.72</v>
       </c>
       <c r="J131" s="4" t="n">
-        <v>24.94</v>
+        <v>32.17</v>
       </c>
       <c r="K131" s="4" t="n">
-        <v>0</v>
+        <v>58.33</v>
       </c>
       <c r="L131" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M131" s="5" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N131" s="5" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="O131" s="4" t="n">
-        <v>-24</v>
+        <v>20</v>
       </c>
       <c r="P131" s="4" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="Q131" s="4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R131" s="4" t="n">
-        <v>0</v>
+        <v>73.33</v>
       </c>
       <c r="S131" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T131" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T131" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U131" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -24 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V131" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W131" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -34821,17 +34821,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>7401740034</t>
+          <t>7905130024</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
+          <t>TATSOI BRASSICA RAPA VAR NARINOSA</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>3LA55</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -34841,88 +34841,88 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>27.9</v>
+        <v>26.91</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>15.64</v>
+        <v>14.74</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="N66" s="5" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>0</v>
+        <v>413.33</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T66" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>7905130024</t>
+          <t>7401740034</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>TATSOI BRASSICA RAPA VAR NARINOSA</t>
+          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>3LA55</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -34932,71 +34932,71 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H67" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>26.91</v>
+        <v>27.9</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>14.74</v>
+        <v>15.64</v>
       </c>
       <c r="K67" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="N67" s="5" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="O67" s="4" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P67" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="P67" s="4" t="n">
-        <v>5</v>
-      </c>
       <c r="Q67" s="4" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>413.33</v>
+        <v>0</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T67" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T67" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -35367,17 +35367,17 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>7202520010</t>
+          <t>7904120008</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>SCHIZANTHUS X WISETONENSIS</t>
+          <t>LECHUGA TROCADERO</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>M14A30</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -35387,12 +35387,12 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
@@ -35402,16 +35402,16 @@
         <v>4</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>23.96</v>
+        <v>19.96</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>12.7</v>
+        <v>9.07</v>
       </c>
       <c r="K72" s="4" t="n">
-        <v>80</v>
+        <v>57.14</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M72" s="5" t="n">
         <v>0.3</v>
@@ -35420,10 +35420,10 @@
         <v>1</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P72" s="4" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="Q72" s="4" t="n">
         <v>92</v>
@@ -35441,7 +35441,7 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -35451,24 +35451,24 @@
       </c>
       <c r="W72" s="4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>7904120008</t>
+          <t>7202520010</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA TROCADERO</t>
+          <t>SCHIZANTHUS X WISETONENSIS</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>M14A30</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -35478,12 +35478,12 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -35493,16 +35493,16 @@
         <v>4</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>19.96</v>
+        <v>23.96</v>
       </c>
       <c r="J73" s="4" t="n">
-        <v>9.07</v>
+        <v>12.7</v>
       </c>
       <c r="K73" s="4" t="n">
-        <v>57.14</v>
+        <v>80</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M73" s="5" t="n">
         <v>0.3</v>
@@ -35511,10 +35511,10 @@
         <v>1</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P73" s="4" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="Q73" s="4" t="n">
         <v>92</v>
@@ -35532,7 +35532,7 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
+          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
@@ -35542,7 +35542,7 @@
       </c>
       <c r="W73" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -35640,17 +35640,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>7804250004</t>
+          <t>7904120006</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA LONGA</t>
+          <t>LECHUGA COGOLLO</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>2LA31</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -35660,88 +35660,88 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H75" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I75" s="4" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="J75" s="4" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="K75" s="4" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="L75" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N75" s="5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O75" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P75" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I75" s="4" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="J75" s="4" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K75" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N75" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O75" s="4" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P75" s="4" t="n">
-        <v>34</v>
-      </c>
       <c r="Q75" s="4" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="R75" s="4" t="n">
-        <v>0</v>
+        <v>313.33</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T75" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T75" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 14/04/2025</t>
         </is>
       </c>
       <c r="W75" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>7904120006</t>
+          <t>7804250004</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA COGOLLO</t>
+          <t>CURCUMA LONGA</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>2LA31</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -35751,71 +35751,71 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H76" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>19.95</v>
+        <v>21.9</v>
       </c>
       <c r="J76" s="4" t="n">
-        <v>9.24</v>
+        <v>11.01</v>
       </c>
       <c r="K76" s="4" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N76" s="5" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="P76" s="4" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="Q76" s="4" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="R76" s="4" t="n">
-        <v>313.33</v>
+        <v>0</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T76" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T76" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W76" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -37005,17 +37005,17 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>7905020001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA ALMAGRO</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -37025,88 +37025,88 @@
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H90" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I90" s="4" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="J90" s="4" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="K90" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" s="5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O90" s="4" t="n">
+        <v>-12</v>
+      </c>
+      <c r="P90" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="I90" s="4" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="J90" s="4" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="K90" s="4" t="n">
-        <v>26.67</v>
-      </c>
-      <c r="L90" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" s="5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N90" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O90" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="P90" s="4" t="n">
-        <v>5</v>
-      </c>
       <c r="Q90" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R90" s="4" t="n">
-        <v>333.33</v>
+        <v>0</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T90" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T90" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -12 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W90" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7905020001</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
+          <t>BERENJENA ALMAGRO</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -37116,71 +37116,71 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H91" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I91" s="4" t="n">
-        <v>23.88</v>
+        <v>19.92</v>
       </c>
       <c r="J91" s="4" t="n">
-        <v>14.03</v>
+        <v>10.43</v>
       </c>
       <c r="K91" s="4" t="n">
-        <v>0</v>
+        <v>26.67</v>
       </c>
       <c r="L91" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M91" s="5" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N91" s="5" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>-12</v>
+        <v>22</v>
       </c>
       <c r="P91" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q91" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R91" s="4" t="n">
-        <v>0</v>
+        <v>333.33</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T91" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T91" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -12 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W91" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -37460,12 +37460,12 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>7201400001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA GRANDIFLORA</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -37516,7 +37516,7 @@
         <v>3</v>
       </c>
       <c r="P95" s="4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q95" s="4" t="n">
         <v>18</v>
@@ -37551,12 +37551,12 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7201400001</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
+          <t>PORTULACA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -37607,7 +37607,7 @@
         <v>3</v>
       </c>
       <c r="P96" s="4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q96" s="4" t="n">
         <v>18</v>
@@ -41191,17 +41191,17 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>7401460000</t>
+          <t>7104100001</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>IBERIS SEMPERVIRENS</t>
+          <t>PRIMULA ACAULIS MEZCLA PACK 4</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>PACK4</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -41211,43 +41211,43 @@
       </c>
       <c r="E136" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
         </is>
       </c>
       <c r="G136" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H136" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" s="4" t="n">
-        <v>11</v>
+        <v>6.99</v>
       </c>
       <c r="J136" s="4" t="n">
-        <v>6.74</v>
+        <v>3.09</v>
       </c>
       <c r="K136" s="4" t="n">
-        <v>33.33</v>
+        <v>25</v>
       </c>
       <c r="L136" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M136" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N136" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="N136" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O136" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P136" s="4" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="Q136" s="4" t="n">
         <v>92</v>
@@ -41265,7 +41265,7 @@
       </c>
       <c r="U136" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.03€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V136" s="4" t="inlineStr">
@@ -41282,17 +41282,17 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>7104100001</t>
+          <t>7401460000</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>PRIMULA ACAULIS MEZCLA PACK 4</t>
+          <t>IBERIS SEMPERVIRENS</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>PACK4</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -41302,43 +41302,43 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G137" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H137" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" s="4" t="n">
-        <v>6.99</v>
+        <v>11</v>
       </c>
       <c r="J137" s="4" t="n">
-        <v>3.09</v>
+        <v>6.74</v>
       </c>
       <c r="K137" s="4" t="n">
-        <v>25</v>
+        <v>33.33</v>
       </c>
       <c r="L137" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M137" s="5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N137" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O137" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P137" s="4" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="Q137" s="4" t="n">
         <v>92</v>
@@ -41356,7 +41356,7 @@
       </c>
       <c r="U137" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.03€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V137" s="4" t="inlineStr">
@@ -42912,42 +42912,42 @@
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7905100001</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>ACELGA</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F155" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G155" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H155" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" s="4" t="n">
-        <v>4.99</v>
+        <v>4.98</v>
       </c>
       <c r="J155" s="4" t="n">
         <v>2.56</v>
@@ -42959,16 +42959,16 @@
         <v>0</v>
       </c>
       <c r="M155" s="5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N155" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O155" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P155" s="4" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="Q155" s="4" t="n">
         <v>0</v>
@@ -42986,7 +42986,7 @@
       </c>
       <c r="U155" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V155" s="4" t="inlineStr">
@@ -43003,42 +43003,42 @@
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>7905100001</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>ACELGA</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>AMARILLO</t>
         </is>
       </c>
       <c r="E156" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F156" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G156" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H156" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" s="4" t="n">
-        <v>4.98</v>
+        <v>4.99</v>
       </c>
       <c r="J156" s="4" t="n">
         <v>2.56</v>
@@ -43050,16 +43050,16 @@
         <v>0</v>
       </c>
       <c r="M156" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N156" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="N156" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O156" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P156" s="4" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q156" s="4" t="n">
         <v>0</v>
@@ -43077,7 +43077,7 @@
       </c>
       <c r="U156" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V156" s="4" t="inlineStr">
@@ -43367,12 +43367,12 @@
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>7905130002</t>
+          <t>7905130003</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>BROCOLI VERDE</t>
+          <t>COL BRUSELAS</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -43423,7 +43423,7 @@
         <v>-1</v>
       </c>
       <c r="P160" s="4" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q160" s="4" t="n">
         <v>0</v>
@@ -43458,12 +43458,12 @@
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>7905130003</t>
+          <t>7905130002</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>COL BRUSELAS</t>
+          <t>BROCOLI VERDE</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
@@ -43514,7 +43514,7 @@
         <v>-1</v>
       </c>
       <c r="P161" s="4" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q161" s="4" t="n">
         <v>0</v>
@@ -44341,17 +44341,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>7904120005</t>
+          <t>7804160002</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ICEBERG</t>
+          <t>MENTHA PIPERITA CITRATA "CHOCOLATE"</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -44361,12 +44361,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -44385,7 +44385,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -44394,7 +44394,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
@@ -44415,7 +44415,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.56€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -44432,17 +44432,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>7804230001</t>
+          <t>7901010004</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>THYMUS VULGARIS COMPACTUS</t>
+          <t>FRAGARIA ANANASSA - FRESA RED ROSE MIAM</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>C17A30</t>
+          <t>1LA30</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -44452,12 +44452,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -44476,7 +44476,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -44485,19 +44485,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>26.67</v>
+        <v>73.33</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
@@ -44506,12 +44506,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -44523,17 +44523,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>7401740013</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>AUBRIETA X CULTORUM</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>M13A30</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -44543,12 +44543,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -44567,7 +44567,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -44576,19 +44576,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>613.33</v>
+        <v>26.67</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -44597,12 +44597,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -44614,17 +44614,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>7805020002</t>
+          <t>7401740046</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA DENTATA VAR. CANDICANS</t>
+          <t>GLYCYRRHIZA GLABRA (REGALIZ)</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -44634,12 +44634,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -44658,7 +44658,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -44667,16 +44667,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>586.67</v>
+        <v>166.67</v>
       </c>
       <c r="S5" s="5" t="n">
         <v>30</v>
@@ -44693,7 +44693,7 @@
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -44705,17 +44705,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>7503010005</t>
+          <t>7206020004</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>DENDRANTHEMA X GRANDIFLORUM</t>
+          <t>CHRYSANTHEMUN IND CARNAVAL</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>M13A30</t>
+          <t>M12A25</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -44725,12 +44725,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -44749,7 +44749,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -44758,19 +44758,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>26.67</v>
+        <v>613.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
@@ -44779,12 +44779,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.96€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -44796,17 +44796,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7203230001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>GERBERA HYBRIDS</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>2LA35</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -44840,7 +44840,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -44849,19 +44849,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>613.33</v>
+        <v>73.33</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
@@ -44870,12 +44870,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -44887,17 +44887,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7206020004</t>
+          <t>7504010002</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN IND CARNAVAL</t>
+          <t>PERICALLIS HYBRIDA "SENETTI BABY"</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>M12A25</t>
+          <t>C17A35</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -44907,12 +44907,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -44931,7 +44931,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -44940,19 +44940,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>613.33</v>
+        <v>26.67</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T8" s="8" t="inlineStr">
         <is>
@@ -44961,12 +44961,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.96€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -45160,17 +45160,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>7205090002</t>
+          <t>7804250002</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>VIOLA X WITROCKIANA</t>
+          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>T23A15</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -45180,12 +45180,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -45204,7 +45204,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -45213,16 +45213,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>613.33</v>
+        <v>186.67</v>
       </c>
       <c r="S11" s="5" t="n">
         <v>30</v>
@@ -45234,12 +45234,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -45251,17 +45251,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>7504010002</t>
+          <t>7805020002</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>PERICALLIS HYBRIDA "SENETTI BABY"</t>
+          <t>LAVANDULA DENTATA VAR. CANDICANS</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>C17A35</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -45271,12 +45271,12 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -45295,7 +45295,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -45304,19 +45304,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>26.67</v>
+        <v>586.67</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T12" s="8" t="inlineStr">
         <is>
@@ -45325,12 +45325,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -45342,17 +45342,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>7203230001</t>
+          <t>7805110002</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>GERBERA HYBRIDS</t>
+          <t>SALVIA LEUCANTHA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>2LA35</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -45362,12 +45362,12 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -45386,7 +45386,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -45395,19 +45395,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>73.33</v>
+        <v>613.33</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T13" s="8" t="inlineStr">
         <is>
@@ -45416,12 +45416,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -45433,17 +45433,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>7804160002</t>
+          <t>7905130013</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MENTHA PIPERITA CITRATA "CHOCOLATE"</t>
+          <t>COL DE MILAN</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -45453,12 +45453,12 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -45477,7 +45477,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -45486,7 +45486,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
@@ -45507,7 +45507,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.56€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -45524,17 +45524,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>7401290001</t>
+          <t>7804230001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ERYSIMUM HYBRIDUM</t>
+          <t>THYMUS VULGARIS COMPACTUS</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>2LA20</t>
+          <t>C17A30</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -45544,12 +45544,12 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -45583,13 +45583,13 @@
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>73.33</v>
+        <v>26.67</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
@@ -45598,12 +45598,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -45706,17 +45706,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>7804250002</t>
+          <t>7803030001</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
+          <t>OCIMUM BASILICUM "MINIMUM"</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>C16A15</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -45750,7 +45750,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -45759,19 +45759,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>186.67</v>
+        <v>26.67</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T17" s="8" t="inlineStr">
         <is>
@@ -45780,12 +45780,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -45797,17 +45797,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>7203500003</t>
+          <t>7401290001</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>VERBENA BONARIENSIS</t>
+          <t>ERYSIMUM HYBRIDUM</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>2LA20</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -45817,12 +45817,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -45841,7 +45841,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -45850,19 +45850,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>253.33</v>
+        <v>73.33</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
@@ -45871,12 +45871,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -45888,17 +45888,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>7805110002</t>
+          <t>7401740013</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>SALVIA LEUCANTHA</t>
+          <t>AUBRIETA X CULTORUM</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>M13A30</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -45908,12 +45908,12 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -45932,7 +45932,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -45941,7 +45941,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
@@ -45962,7 +45962,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -45979,17 +45979,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>7905130013</t>
+          <t>7503010005</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>COL DE MILAN</t>
+          <t>DENDRANTHEMA X GRANDIFLORUM</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A30</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -45999,12 +45999,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -46023,7 +46023,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -46032,19 +46032,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>613.33</v>
+        <v>26.67</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T20" s="8" t="inlineStr">
         <is>
@@ -46053,12 +46053,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.84€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -46070,17 +46070,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>7803030001</t>
+          <t>7803250003</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>OCIMUM BASILICUM "MINIMUM"</t>
+          <t>ORIGANUM VULGARE</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>C16A15</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -46114,7 +46114,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -46123,16 +46123,16 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>26.67</v>
+        <v>6.67</v>
       </c>
       <c r="S21" s="5" t="n">
         <v>0</v>
@@ -46149,7 +46149,7 @@
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 30/05/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -46161,17 +46161,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>7901010004</t>
+          <t>7203500003</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA RED ROSE MIAM</t>
+          <t>VERBENA BONARIENSIS</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>1LA30</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -46181,12 +46181,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -46205,7 +46205,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -46214,19 +46214,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>73.33</v>
+        <v>253.33</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T22" s="8" t="inlineStr">
         <is>
@@ -46235,12 +46235,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -46252,17 +46252,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7205090002</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>VIOLA X WITROCKIANA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>T23A15</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -46272,12 +46272,12 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -46296,7 +46296,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -46305,19 +46305,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>26.67</v>
+        <v>613.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
@@ -46326,12 +46326,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -46343,17 +46343,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>7803250003</t>
+          <t>7904120005</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ORIGANUM VULGARE</t>
+          <t>LECHUGA ICEBERG</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -46363,12 +46363,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -46387,7 +46387,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -46396,19 +46396,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>6.67</v>
+        <v>613.33</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T24" s="8" t="inlineStr">
         <is>
@@ -46417,12 +46417,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -46434,17 +46434,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>7401740046</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>GLYCYRRHIZA GLABRA (REGALIZ)</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -46454,12 +46454,12 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -46478,7 +46478,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -46487,16 +46487,16 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>166.67</v>
+        <v>613.33</v>
       </c>
       <c r="S25" s="5" t="n">
         <v>30</v>
@@ -46508,12 +46508,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_MAF_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MAF_P2_2025.xlsx
@@ -7559,17 +7559,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>7203350001</t>
+          <t>7401047003</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>OSTEOSPERMUM ECKLONIS</t>
+          <t>ALSTROEMERIA HYBRIDA PRINCESS</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>JAR25A40</t>
+          <t>C19A25</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -7579,12 +7579,12 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
@@ -7594,16 +7594,16 @@
         <v>13</v>
       </c>
       <c r="I78" s="4" t="n">
-        <v>222.37</v>
+        <v>210.01</v>
       </c>
       <c r="J78" s="4" t="n">
-        <v>114.01</v>
+        <v>102.78</v>
       </c>
       <c r="K78" s="4" t="n">
-        <v>65</v>
+        <v>86.67</v>
       </c>
       <c r="L78" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M78" s="5" t="n">
         <v>1.1</v>
@@ -7612,55 +7612,55 @@
         <v>3.2</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P78" s="4" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="4" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="R78" s="4" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T78" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T78" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W78" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>7401047003</t>
+          <t>7203350001</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>ALSTROEMERIA HYBRIDA PRINCESS</t>
+          <t>OSTEOSPERMUM ECKLONIS</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>C19A25</t>
+          <t>JAR25A40</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -7670,12 +7670,12 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
@@ -7685,16 +7685,16 @@
         <v>13</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>210.01</v>
+        <v>222.37</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>102.78</v>
+        <v>114.01</v>
       </c>
       <c r="K79" s="4" t="n">
-        <v>86.67</v>
+        <v>65</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M79" s="5" t="n">
         <v>1.1</v>
@@ -7703,38 +7703,38 @@
         <v>3.2</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P79" s="4" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q79" s="4" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="R79" s="4" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T79" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T79" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W79" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9834,12 +9834,12 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>7905120005</t>
+          <t>7901010002</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>TOMATE PERA MATA BAJA</t>
+          <t>FRAGARIA VESCA</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -9869,13 +9869,13 @@
         <v>28</v>
       </c>
       <c r="I103" s="4" t="n">
-        <v>200.72</v>
+        <v>211.4</v>
       </c>
       <c r="J103" s="4" t="n">
-        <v>111.63</v>
+        <v>121.34</v>
       </c>
       <c r="K103" s="4" t="n">
-        <v>58.33</v>
+        <v>70</v>
       </c>
       <c r="L103" s="4" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>6.8</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P103" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q103" s="4" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="R103" s="4" t="n">
-        <v>333.33</v>
+        <v>213.33</v>
       </c>
       <c r="S103" s="5" t="n">
         <v>30</v>
@@ -9908,29 +9908,29 @@
       </c>
       <c r="U103" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V103" s="4" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W103" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>7901010002</t>
+          <t>7905120005</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA VESCA</t>
+          <t>TOMATE PERA MATA BAJA</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -9960,13 +9960,13 @@
         <v>28</v>
       </c>
       <c r="I104" s="4" t="n">
-        <v>211.4</v>
+        <v>200.72</v>
       </c>
       <c r="J104" s="4" t="n">
-        <v>121.34</v>
+        <v>111.63</v>
       </c>
       <c r="K104" s="4" t="n">
-        <v>70</v>
+        <v>58.33</v>
       </c>
       <c r="L104" s="4" t="n">
         <v>0</v>
@@ -9978,16 +9978,16 @@
         <v>6.8</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P104" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q104" s="4" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="R104" s="4" t="n">
-        <v>213.33</v>
+        <v>333.33</v>
       </c>
       <c r="S104" s="5" t="n">
         <v>30</v>
@@ -9999,17 +9999,17 @@
       </c>
       <c r="U104" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V104" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W104" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10380,17 +10380,17 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7805010002</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>OCIMUN BASILICUM GRAND VERT</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -10415,16 +10415,16 @@
         <v>48</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>222.04</v>
+        <v>232.8</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>134.65</v>
+        <v>144.44</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>46.6</v>
+        <v>75</v>
       </c>
       <c r="L109" s="4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M109" s="5" t="n">
         <v>3.9</v>
@@ -10433,10 +10433,10 @@
         <v>11.7</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q109" s="4" t="n">
         <v>25</v>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 2 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
@@ -10464,24 +10464,24 @@
       </c>
       <c r="W109" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>7805010002</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>OCIMUN BASILICUM GRAND VERT</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -10506,16 +10506,16 @@
         <v>48</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>232.8</v>
+        <v>222.04</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>144.44</v>
+        <v>134.65</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>75</v>
+        <v>46.6</v>
       </c>
       <c r="L110" s="4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M110" s="5" t="n">
         <v>3.9</v>
@@ -10524,10 +10524,10 @@
         <v>11.7</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q110" s="4" t="n">
         <v>25</v>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 2 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
@@ -10555,7 +10555,7 @@
       </c>
       <c r="W110" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14930,17 +14930,17 @@
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>7905120001</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MONTSERRAT</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
@@ -14950,88 +14950,88 @@
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F159" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G159" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H159" s="4" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I159" s="4" t="n">
-        <v>119.84</v>
+        <v>135.66</v>
       </c>
       <c r="J159" s="4" t="n">
-        <v>57.27</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="K159" s="4" t="n">
-        <v>100</v>
+        <v>94.44</v>
       </c>
       <c r="L159" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M159" s="5" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="N159" s="5" t="n">
-        <v>3.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O159" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P159" s="4" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="Q159" s="4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R159" s="4" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="S159" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T159" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T159" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U159" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V159" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 10/04/2025</t>
         </is>
       </c>
       <c r="W159" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7905120001</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>TOMATE MONTSERRAT</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -15041,71 +15041,71 @@
       </c>
       <c r="E160" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F160" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G160" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H160" s="4" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I160" s="4" t="n">
-        <v>135.66</v>
+        <v>119.84</v>
       </c>
       <c r="J160" s="4" t="n">
-        <v>71.65000000000001</v>
+        <v>57.27</v>
       </c>
       <c r="K160" s="4" t="n">
-        <v>94.44</v>
+        <v>100</v>
       </c>
       <c r="L160" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M160" s="5" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="N160" s="5" t="n">
-        <v>8.300000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="O160" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P160" s="4" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="Q160" s="4" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R160" s="4" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="S160" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T160" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T160" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U160" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V160" s="4" t="inlineStr">
         <is>
-          <t>Compra 10/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W160" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
@@ -17004,12 +17004,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>7901010001</t>
+          <t>7803250003</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA</t>
+          <t>ORIGANUM VULGARE</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -17024,12 +17024,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -17039,13 +17039,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>137.54</v>
+        <v>113.34</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>80.42</v>
+        <v>58.42</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>61.33</v>
+        <v>76.67</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -17057,50 +17057,50 @@
         <v>11.2</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P11" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" s="4" t="n">
-        <v>38</v>
-      </c>
       <c r="R11" s="4" t="n">
-        <v>253.33</v>
+        <v>6.67</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T11" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T11" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 2 unidades. Prioridad alta.</t>
+          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 30/05/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>7803250003</t>
+          <t>7901010001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ORIGANUM VULGARE</t>
+          <t>FRAGARIA ANANASSA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -17115,12 +17115,12 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -17130,13 +17130,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>113.34</v>
+        <v>137.54</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>58.42</v>
+        <v>80.42</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>76.67</v>
+        <v>61.33</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0</v>
@@ -17148,38 +17148,38 @@
         <v>11.2</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>6.67</v>
+        <v>253.33</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T12" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 2 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/05/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -19461,17 +19461,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>7203510004</t>
+          <t>7401180000</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>MIMOSA PUDICA</t>
+          <t>KALANCHOE BLOSSFELDIANA CALANDIVA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>M11A25</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -19481,49 +19481,49 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>103.87</v>
+        <v>92.25</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>55.43</v>
+        <v>44.86</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>72.22</v>
+        <v>59.52</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="N38" s="5" t="n">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>213.33</v>
+        <v>253.33</v>
       </c>
       <c r="S38" s="5" t="n">
         <v>30</v>
@@ -19535,34 +19535,34 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>7401180000</t>
+          <t>7203510004</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>KALANCHOE BLOSSFELDIANA CALANDIVA</t>
+          <t>MIMOSA PUDICA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>M11A25</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -19572,49 +19572,49 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>92.25</v>
+        <v>103.87</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>44.86</v>
+        <v>55.43</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>59.52</v>
+        <v>72.22</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="N39" s="5" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>253.33</v>
+        <v>213.33</v>
       </c>
       <c r="S39" s="5" t="n">
         <v>30</v>
@@ -19626,17 +19626,17 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -26559,17 +26559,17 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>7203190001</t>
+          <t>7901010001</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>EURYOPS CHRYSANTHEMOIDES</t>
+          <t>FRAGARIA ANANASSA</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -26579,88 +26579,88 @@
       </c>
       <c r="E116" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F116" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G116" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H116" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I116" s="4" t="n">
-        <v>53.9</v>
+        <v>69.2</v>
       </c>
       <c r="J116" s="4" t="n">
-        <v>29</v>
+        <v>42.91</v>
       </c>
       <c r="K116" s="4" t="n">
-        <v>35.71</v>
+        <v>100</v>
       </c>
       <c r="L116" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M116" s="5" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="N116" s="5" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O116" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P116" s="4" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="Q116" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R116" s="4" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S116" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T116" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T116" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U116" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V116" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W116" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>7901010001</t>
+          <t>7203190001</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA</t>
+          <t>EURYOPS CHRYSANTHEMOIDES</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -26670,71 +26670,71 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F117" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G117" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H117" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I117" s="4" t="n">
-        <v>69.2</v>
+        <v>53.9</v>
       </c>
       <c r="J117" s="4" t="n">
-        <v>42.91</v>
+        <v>29</v>
       </c>
       <c r="K117" s="4" t="n">
-        <v>100</v>
+        <v>35.71</v>
       </c>
       <c r="L117" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M117" s="5" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N117" s="5" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O117" s="4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P117" s="4" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="Q117" s="4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R117" s="4" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S117" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T117" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T117" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U117" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V117" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W117" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -26832,17 +26832,17 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>7201480001</t>
+          <t>7201400001</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA OFFICINALIS</t>
+          <t>PORTULACA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M13A35</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -26864,76 +26864,76 @@
         <v>15</v>
       </c>
       <c r="H119" s="4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I119" s="4" t="n">
-        <v>55.86</v>
+        <v>44.28</v>
       </c>
       <c r="J119" s="4" t="n">
-        <v>31.46</v>
+        <v>20.93</v>
       </c>
       <c r="K119" s="4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L119" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M119" s="5" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="N119" s="5" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O119" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P119" s="4" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Q119" s="4" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="R119" s="4" t="n">
-        <v>400</v>
+        <v>26.67</v>
       </c>
       <c r="S119" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T119" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T119" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U119" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
         </is>
       </c>
       <c r="V119" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W119" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>7201400001</t>
+          <t>7201480001</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA GRANDIFLORA</t>
+          <t>CALENDULA OFFICINALIS</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>M13A35</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -26955,59 +26955,59 @@
         <v>15</v>
       </c>
       <c r="H120" s="4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I120" s="4" t="n">
-        <v>44.28</v>
+        <v>55.86</v>
       </c>
       <c r="J120" s="4" t="n">
-        <v>20.93</v>
+        <v>31.46</v>
       </c>
       <c r="K120" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L120" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M120" s="5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N120" s="5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O120" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P120" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q120" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="L120" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M120" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" s="5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O120" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="P120" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="4" t="n">
-        <v>4</v>
-      </c>
       <c r="R120" s="4" t="n">
-        <v>26.67</v>
+        <v>400</v>
       </c>
       <c r="S120" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T120" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T120" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U120" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 61 días.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V120" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W120" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -28106,17 +28106,17 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>7905040021</t>
+          <t>7905120020</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE CHILE POBLANO</t>
+          <t>TOMATE CHERRY ESPALDERA</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>C19A60</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
@@ -28138,76 +28138,76 @@
         <v>15</v>
       </c>
       <c r="H133" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I133" s="4" t="n">
-        <v>41.86</v>
+        <v>41.5</v>
       </c>
       <c r="J133" s="4" t="n">
-        <v>19.99</v>
+        <v>19.67</v>
       </c>
       <c r="K133" s="4" t="n">
-        <v>46.67</v>
+        <v>100</v>
       </c>
       <c r="L133" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M133" s="5" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="N133" s="5" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="O133" s="4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P133" s="4" t="n">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="Q133" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R133" s="4" t="n">
-        <v>333.33</v>
+        <v>0</v>
       </c>
       <c r="S133" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T133" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T133" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U133" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V133" s="4" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W133" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>7905120020</t>
+          <t>7201040000</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CHERRY ESPALDERA</t>
+          <t>SUTERA HYBRIDA</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>C19A60</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
@@ -28217,88 +28217,88 @@
       </c>
       <c r="E134" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F134" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G134" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H134" s="4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I134" s="4" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="J134" s="4" t="n">
-        <v>19.67</v>
+        <v>19.49</v>
       </c>
       <c r="K134" s="4" t="n">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="L134" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M134" s="5" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="N134" s="5" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="O134" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" s="4" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="Q134" s="4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="R134" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S134" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T134" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T134" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U134" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V134" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 15/04/2025</t>
         </is>
       </c>
       <c r="W134" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>7201040000</t>
+          <t>7905040021</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>SUTERA HYBRIDA</t>
+          <t>PIMIENTO PICANTE CHILE POBLANO</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -28308,12 +28308,12 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F135" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G135" s="4" t="n">
@@ -28323,16 +28323,16 @@
         <v>14</v>
       </c>
       <c r="I135" s="4" t="n">
-        <v>41.3</v>
+        <v>41.86</v>
       </c>
       <c r="J135" s="4" t="n">
-        <v>19.49</v>
+        <v>19.99</v>
       </c>
       <c r="K135" s="4" t="n">
-        <v>93.33</v>
+        <v>46.67</v>
       </c>
       <c r="L135" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M135" s="5" t="n">
         <v>1.1</v>
@@ -28341,16 +28341,16 @@
         <v>3.4</v>
       </c>
       <c r="O135" s="4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P135" s="4" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Q135" s="4" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R135" s="4" t="n">
-        <v>306.67</v>
+        <v>333.33</v>
       </c>
       <c r="S135" s="5" t="n">
         <v>30</v>
@@ -28362,17 +28362,17 @@
       </c>
       <c r="U135" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V135" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/04/2025</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W135" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -28470,17 +28470,17 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>7401520000</t>
+          <t>7905120018</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>LITHODORA DIFUSA</t>
+          <t>TOMATE MONTERROSA</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M12A30</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -28490,88 +28490,88 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G137" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H137" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I137" s="4" t="n">
-        <v>44.55</v>
+        <v>41.88</v>
       </c>
       <c r="J137" s="4" t="n">
-        <v>22.5</v>
+        <v>20.07</v>
       </c>
       <c r="K137" s="4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L137" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M137" s="5" t="n">
-        <v>0.7</v>
-      </c>
       <c r="N137" s="5" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O137" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P137" s="4" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q137" s="4" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="R137" s="4" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="S137" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T137" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T137" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U137" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V137" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W137" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>7905120018</t>
+          <t>7401520000</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MONTERROSA</t>
+          <t>LITHODORA DIFUSA</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>M12A30</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -28581,71 +28581,71 @@
       </c>
       <c r="E138" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F138" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G138" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H138" s="4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I138" s="4" t="n">
-        <v>41.88</v>
+        <v>44.55</v>
       </c>
       <c r="J138" s="4" t="n">
-        <v>20.07</v>
+        <v>22.5</v>
       </c>
       <c r="K138" s="4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L138" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M138" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N138" s="5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O138" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N138" s="5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O138" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="P138" s="4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q138" s="4" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="R138" s="4" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="S138" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T138" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T138" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U138" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V138" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 20/03/2025</t>
         </is>
       </c>
       <c r="W138" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -32000,17 +32000,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7905120015</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARYOPHYLUS MINI</t>
+          <t>TOMATE CHERRY NEGRO</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>JAR25A25</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -32020,49 +32020,49 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H35" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I35" s="4" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J35" s="4" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="K35" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="L35" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I35" s="4" t="n">
-        <v>38.85</v>
-      </c>
-      <c r="J35" s="4" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="K35" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="L35" s="4" t="n">
+      <c r="M35" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M35" s="5" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N35" s="5" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P35" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q35" s="4" t="n">
         <v>62</v>
       </c>
-      <c r="Q35" s="4" t="n">
-        <v>88</v>
-      </c>
       <c r="R35" s="4" t="n">
-        <v>586.67</v>
+        <v>413.33</v>
       </c>
       <c r="S35" s="5" t="n">
         <v>30</v>
@@ -32074,34 +32074,34 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN PARCIAL: Aplicar descuento 30% a stock actual. Reducir compras 50% próxima temporada. Producto de baja rotación confirmada.</t>
+          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>7905120015</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CHERRY NEGRO</t>
+          <t>DIANTHUS CARYOPHYLUS MINI</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>JAR25A25</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -32111,49 +32111,49 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>29.88</v>
+        <v>38.85</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>13.72</v>
+        <v>21.88</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M36" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N36" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O36" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N36" s="5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O36" s="4" t="n">
-        <v>3</v>
-      </c>
       <c r="P36" s="4" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>413.33</v>
+        <v>586.67</v>
       </c>
       <c r="S36" s="5" t="n">
         <v>30</v>
@@ -32165,17 +32165,17 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
+          <t>LIQUIDACIÓN PARCIAL: Aplicar descuento 30% a stock actual. Reducir compras 50% próxima temporada. Producto de baja rotación confirmada.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -34821,17 +34821,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>7905130024</t>
+          <t>7401740034</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>TATSOI BRASSICA RAPA VAR NARINOSA</t>
+          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>3LA55</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -34841,88 +34841,88 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>26.91</v>
+        <v>27.9</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>14.74</v>
+        <v>15.64</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="N66" s="5" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="O66" s="4" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P66" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="P66" s="4" t="n">
-        <v>5</v>
-      </c>
       <c r="Q66" s="4" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>413.33</v>
+        <v>0</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T66" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T66" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>7401740034</t>
+          <t>7905130024</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
+          <t>TATSOI BRASSICA RAPA VAR NARINOSA</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>3LA55</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -34932,71 +34932,71 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H67" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>27.9</v>
+        <v>26.91</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>15.64</v>
+        <v>14.74</v>
       </c>
       <c r="K67" s="4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="N67" s="5" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="P67" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>0</v>
+        <v>413.33</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T67" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -35367,17 +35367,17 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>7904120008</t>
+          <t>7202520010</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA TROCADERO</t>
+          <t>SCHIZANTHUS X WISETONENSIS</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>M14A30</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -35387,12 +35387,12 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
@@ -35402,16 +35402,16 @@
         <v>4</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>19.96</v>
+        <v>23.96</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>9.07</v>
+        <v>12.7</v>
       </c>
       <c r="K72" s="4" t="n">
-        <v>57.14</v>
+        <v>80</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M72" s="5" t="n">
         <v>0.3</v>
@@ -35420,10 +35420,10 @@
         <v>1</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P72" s="4" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="Q72" s="4" t="n">
         <v>92</v>
@@ -35441,7 +35441,7 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
+          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -35451,24 +35451,24 @@
       </c>
       <c r="W72" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>7202520010</t>
+          <t>7904120008</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>SCHIZANTHUS X WISETONENSIS</t>
+          <t>LECHUGA TROCADERO</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>M14A30</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -35478,12 +35478,12 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -35493,16 +35493,16 @@
         <v>4</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>23.96</v>
+        <v>19.96</v>
       </c>
       <c r="J73" s="4" t="n">
-        <v>12.7</v>
+        <v>9.07</v>
       </c>
       <c r="K73" s="4" t="n">
-        <v>80</v>
+        <v>57.14</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M73" s="5" t="n">
         <v>0.3</v>
@@ -35511,10 +35511,10 @@
         <v>1</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P73" s="4" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="Q73" s="4" t="n">
         <v>92</v>
@@ -35532,7 +35532,7 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
@@ -35542,7 +35542,7 @@
       </c>
       <c r="W73" s="4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -37005,17 +37005,17 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7905020001</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
+          <t>BERENJENA ALMAGRO</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -37025,88 +37025,88 @@
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H90" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I90" s="4" t="n">
-        <v>23.88</v>
+        <v>19.92</v>
       </c>
       <c r="J90" s="4" t="n">
-        <v>14.03</v>
+        <v>10.43</v>
       </c>
       <c r="K90" s="4" t="n">
-        <v>0</v>
+        <v>26.67</v>
       </c>
       <c r="L90" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M90" s="5" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N90" s="5" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>-12</v>
+        <v>22</v>
       </c>
       <c r="P90" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q90" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R90" s="4" t="n">
-        <v>0</v>
+        <v>333.33</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T90" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T90" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -12 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W90" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>7905020001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA ALMAGRO</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -37116,71 +37116,71 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H91" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I91" s="4" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="J91" s="4" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="K91" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" s="5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O91" s="4" t="n">
+        <v>-12</v>
+      </c>
+      <c r="P91" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="I91" s="4" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="J91" s="4" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="K91" s="4" t="n">
-        <v>26.67</v>
-      </c>
-      <c r="L91" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" s="5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N91" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O91" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="P91" s="4" t="n">
-        <v>5</v>
-      </c>
       <c r="Q91" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R91" s="4" t="n">
-        <v>333.33</v>
+        <v>0</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T91" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T91" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -12 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W91" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -37369,12 +37369,12 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>7203500001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>VERBENA HYBRIDA</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -37410,7 +37410,7 @@
         <v>8.99</v>
       </c>
       <c r="K94" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L94" s="4" t="n">
         <v>0</v>
@@ -37422,50 +37422,50 @@
         <v>0.7</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P94" s="4" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="Q94" s="4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R94" s="4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="S94" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T94" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>20</v>
+      </c>
+      <c r="T94" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W94" s="4" t="inlineStr">
         <is>
-          <t>26D</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7203500001</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
+          <t>VERBENA HYBRIDA</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -37501,7 +37501,7 @@
         <v>8.99</v>
       </c>
       <c r="K95" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L95" s="4" t="n">
         <v>0</v>
@@ -37513,38 +37513,38 @@
         <v>0.7</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P95" s="4" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="Q95" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R95" s="4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="S95" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T95" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T95" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W95" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>26D</t>
         </is>
       </c>
     </row>
@@ -41191,17 +41191,17 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>7104100001</t>
+          <t>7401460000</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>PRIMULA ACAULIS MEZCLA PACK 4</t>
+          <t>IBERIS SEMPERVIRENS</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>PACK4</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -41211,43 +41211,43 @@
       </c>
       <c r="E136" s="4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G136" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H136" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" s="4" t="n">
-        <v>6.99</v>
+        <v>11</v>
       </c>
       <c r="J136" s="4" t="n">
-        <v>3.09</v>
+        <v>6.74</v>
       </c>
       <c r="K136" s="4" t="n">
-        <v>25</v>
+        <v>33.33</v>
       </c>
       <c r="L136" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M136" s="5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N136" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O136" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P136" s="4" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="Q136" s="4" t="n">
         <v>92</v>
@@ -41265,7 +41265,7 @@
       </c>
       <c r="U136" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.03€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V136" s="4" t="inlineStr">
@@ -41282,17 +41282,17 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>7401460000</t>
+          <t>7104100001</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>IBERIS SEMPERVIRENS</t>
+          <t>PRIMULA ACAULIS MEZCLA PACK 4</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>PACK4</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -41302,43 +41302,43 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
         </is>
       </c>
       <c r="G137" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H137" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" s="4" t="n">
-        <v>11</v>
+        <v>6.99</v>
       </c>
       <c r="J137" s="4" t="n">
-        <v>6.74</v>
+        <v>3.09</v>
       </c>
       <c r="K137" s="4" t="n">
-        <v>33.33</v>
+        <v>25</v>
       </c>
       <c r="L137" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M137" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N137" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="N137" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O137" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P137" s="4" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="Q137" s="4" t="n">
         <v>92</v>
@@ -41356,7 +41356,7 @@
       </c>
       <c r="U137" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.03€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V137" s="4" t="inlineStr">
@@ -44341,17 +44341,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>7804160002</t>
+          <t>7203500003</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>MENTHA PIPERITA CITRATA "CHOCOLATE"</t>
+          <t>VERBENA BONARIENSIS</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -44361,12 +44361,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -44385,7 +44385,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -44394,16 +44394,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>613.33</v>
+        <v>253.33</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>30</v>
@@ -44415,12 +44415,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.56€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -44432,17 +44432,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>7901010004</t>
+          <t>7401740046</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA RED ROSE MIAM</t>
+          <t>GLYCYRRHIZA GLABRA (REGALIZ)</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>1LA30</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -44452,12 +44452,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -44491,13 +44491,13 @@
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>73.33</v>
+        <v>166.67</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
@@ -44506,12 +44506,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -44614,17 +44614,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>7401740046</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>GLYCYRRHIZA GLABRA (REGALIZ)</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -44634,12 +44634,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -44658,7 +44658,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -44667,16 +44667,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>166.67</v>
+        <v>613.33</v>
       </c>
       <c r="S5" s="5" t="n">
         <v>30</v>
@@ -44688,12 +44688,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -44705,17 +44705,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>7206020004</t>
+          <t>7804250002</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN IND CARNAVAL</t>
+          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>M12A25</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -44725,12 +44725,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -44749,7 +44749,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -44758,16 +44758,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>613.33</v>
+        <v>186.67</v>
       </c>
       <c r="S6" s="5" t="n">
         <v>30</v>
@@ -44779,12 +44779,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.96€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -44796,17 +44796,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>7203230001</t>
+          <t>7805110002</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>GERBERA HYBRIDS</t>
+          <t>SALVIA LEUCANTHA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>2LA35</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -44816,12 +44816,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -44840,7 +44840,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -44849,19 +44849,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>73.33</v>
+        <v>613.33</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
@@ -44870,12 +44870,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -44887,17 +44887,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7504010002</t>
+          <t>7401050001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>PERICALLIS HYBRIDA "SENETTI BABY"</t>
+          <t>LOBULARIA MARITIMA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>C17A35</t>
+          <t>M15A30</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -44907,12 +44907,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -44931,7 +44931,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -44940,7 +44940,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
@@ -44978,17 +44978,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7206040001</t>
+          <t>7901010004</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MATTHIOLA INCANA DOBLE (ALHELÍ)</t>
+          <t>FRAGARIA ANANASSA - FRESA RED ROSE MIAM</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>1LA30</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -44998,12 +44998,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -45022,7 +45022,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -45031,19 +45031,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>613.33</v>
+        <v>73.33</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -45052,12 +45052,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -45069,17 +45069,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>7202520006</t>
+          <t>7905130013</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>TROPAEOLUM MAJUS</t>
+          <t>COL DE MILAN</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -45089,12 +45089,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -45113,7 +45113,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -45122,19 +45122,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>6.67</v>
+        <v>613.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
@@ -45143,12 +45143,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -45160,17 +45160,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>7804250002</t>
+          <t>7803250003</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
+          <t>ORIGANUM VULGARE</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -45204,7 +45204,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -45213,19 +45213,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>186.67</v>
+        <v>6.67</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -45234,12 +45234,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 30/05/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -45251,17 +45251,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>7805020002</t>
+          <t>7904120005</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA DENTATA VAR. CANDICANS</t>
+          <t>LECHUGA ICEBERG</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -45271,12 +45271,12 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -45295,7 +45295,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -45304,16 +45304,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>586.67</v>
+        <v>613.33</v>
       </c>
       <c r="S12" s="5" t="n">
         <v>30</v>
@@ -45325,12 +45325,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -45342,17 +45342,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>7805110002</t>
+          <t>7803030001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>SALVIA LEUCANTHA</t>
+          <t>OCIMUM BASILICUM "MINIMUM"</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>C16A15</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -45386,7 +45386,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -45395,19 +45395,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>613.33</v>
+        <v>26.67</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T13" s="8" t="inlineStr">
         <is>
@@ -45416,12 +45416,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -45433,17 +45433,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>7905130013</t>
+          <t>7804160002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>COL DE MILAN</t>
+          <t>MENTHA PIPERITA CITRATA "CHOCOLATE"</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -45453,12 +45453,12 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -45477,7 +45477,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -45486,7 +45486,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
@@ -45507,7 +45507,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.84€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.56€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -45524,17 +45524,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>7804230001</t>
+          <t>7206020004</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>THYMUS VULGARIS COMPACTUS</t>
+          <t>CHRYSANTHEMUN IND CARNAVAL</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>C17A30</t>
+          <t>M12A25</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -45544,12 +45544,12 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -45568,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -45577,19 +45577,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>26.67</v>
+        <v>613.33</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
@@ -45598,12 +45598,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.96€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -45615,17 +45615,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>7401050001</t>
+          <t>7205090002</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>LOBULARIA MARITIMA</t>
+          <t>VIOLA X WITROCKIANA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>M15A30</t>
+          <t>T23A15</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -45635,12 +45635,12 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -45659,7 +45659,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -45668,19 +45668,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>26.67</v>
+        <v>613.33</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
@@ -45689,12 +45689,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -45706,17 +45706,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>7803030001</t>
+          <t>7805020002</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>OCIMUM BASILICUM "MINIMUM"</t>
+          <t>LAVANDULA DENTATA VAR. CANDICANS</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>C16A15</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -45750,7 +45750,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -45759,19 +45759,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>26.67</v>
+        <v>586.67</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T17" s="8" t="inlineStr">
         <is>
@@ -45780,12 +45780,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -45979,17 +45979,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>7503010005</t>
+          <t>7203230001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>DENDRANTHEMA X GRANDIFLORUM</t>
+          <t>GERBERA HYBRIDS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>M13A30</t>
+          <t>2LA35</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -45999,12 +45999,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -46023,7 +46023,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -46032,19 +46032,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>26.67</v>
+        <v>73.33</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T20" s="8" t="inlineStr">
         <is>
@@ -46053,12 +46053,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -46070,12 +46070,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>7803250003</t>
+          <t>7202520006</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ORIGANUM VULGARE</t>
+          <t>TROPAEOLUM MAJUS</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -46090,12 +46090,12 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -46161,17 +46161,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>7203500003</t>
+          <t>7804230001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>VERBENA BONARIENSIS</t>
+          <t>THYMUS VULGARIS COMPACTUS</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>C17A30</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -46181,12 +46181,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -46205,7 +46205,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -46214,19 +46214,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>253.33</v>
+        <v>26.67</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T22" s="8" t="inlineStr">
         <is>
@@ -46235,12 +46235,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -46252,17 +46252,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>7205090002</t>
+          <t>7206040001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>VIOLA X WITROCKIANA</t>
+          <t>MATTHIOLA INCANA DOBLE (ALHELÍ)</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>T23A15</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -46296,7 +46296,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -46305,7 +46305,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
@@ -46326,7 +46326,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -46343,17 +46343,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>7904120005</t>
+          <t>7503010005</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ICEBERG</t>
+          <t>DENDRANTHEMA X GRANDIFLORUM</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A30</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -46363,12 +46363,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -46387,7 +46387,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -46396,19 +46396,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>613.33</v>
+        <v>26.67</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T24" s="8" t="inlineStr">
         <is>
@@ -46417,12 +46417,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -46434,17 +46434,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7504010002</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>PERICALLIS HYBRIDA "SENETTI BABY"</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>C17A35</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -46454,12 +46454,12 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -46478,7 +46478,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -46487,19 +46487,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>613.33</v>
+        <v>26.67</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
@@ -46508,12 +46508,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_MAF_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MAF_P2_2025.xlsx
@@ -5375,12 +5375,12 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>7905040000</t>
+          <t>7905120004</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>PEPINO</t>
+          <t>TOMATE RAF</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -5410,13 +5410,13 @@
         <v>110</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>279.1</v>
+        <v>273.9</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>147.03</v>
+        <v>142.3</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>75.34</v>
+        <v>61.11</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -5428,50 +5428,50 @@
         <v>26.9</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>120</v>
+        <v>213.33</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T54" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T54" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO LEVE + OPTIMIZACIÓN: Aplicar descuento 20% para renovar inventario. Reducir compras 15% próxima temporada.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 4 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>7905120004</t>
+          <t>7905040000</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>TOMATE RAF</t>
+          <t>PEPINO</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -5501,13 +5501,13 @@
         <v>110</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>273.9</v>
+        <v>279.1</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>142.3</v>
+        <v>147.03</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>61.11</v>
+        <v>75.34</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -5519,38 +5519,38 @@
         <v>26.9</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>213.33</v>
+        <v>120</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T55" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T55" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 4 unidades. Prioridad alta.</t>
+          <t>DESCUENTO LEVE + OPTIMIZACIÓN: Aplicar descuento 20% para renovar inventario. Reducir compras 15% próxima temporada.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -10380,17 +10380,17 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>7805010002</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>OCIMUN BASILICUM GRAND VERT</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -10415,16 +10415,16 @@
         <v>48</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>232.8</v>
+        <v>222.04</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>144.44</v>
+        <v>134.65</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>75</v>
+        <v>46.6</v>
       </c>
       <c r="L109" s="4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M109" s="5" t="n">
         <v>3.9</v>
@@ -10433,10 +10433,10 @@
         <v>11.7</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q109" s="4" t="n">
         <v>25</v>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 2 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
@@ -10464,24 +10464,24 @@
       </c>
       <c r="W109" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7805010002</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>OCIMUN BASILICUM GRAND VERT</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -10506,16 +10506,16 @@
         <v>48</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>222.04</v>
+        <v>232.8</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>134.65</v>
+        <v>144.44</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>46.6</v>
+        <v>75</v>
       </c>
       <c r="L110" s="4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M110" s="5" t="n">
         <v>3.9</v>
@@ -10524,10 +10524,10 @@
         <v>11.7</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q110" s="4" t="n">
         <v>25</v>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 2 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
@@ -10555,7 +10555,7 @@
       </c>
       <c r="W110" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -14930,17 +14930,17 @@
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7905120001</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>TOMATE MONTSERRAT</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
@@ -14950,88 +14950,88 @@
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F159" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G159" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H159" s="4" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I159" s="4" t="n">
-        <v>135.66</v>
+        <v>119.84</v>
       </c>
       <c r="J159" s="4" t="n">
-        <v>71.65000000000001</v>
+        <v>57.27</v>
       </c>
       <c r="K159" s="4" t="n">
-        <v>94.44</v>
+        <v>100</v>
       </c>
       <c r="L159" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M159" s="5" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="N159" s="5" t="n">
-        <v>8.300000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="O159" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P159" s="4" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="Q159" s="4" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R159" s="4" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="S159" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T159" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T159" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U159" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V159" s="4" t="inlineStr">
         <is>
-          <t>Compra 10/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W159" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>7905120001</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MONTSERRAT</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -15041,71 +15041,71 @@
       </c>
       <c r="E160" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F160" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G160" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H160" s="4" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I160" s="4" t="n">
-        <v>119.84</v>
+        <v>135.66</v>
       </c>
       <c r="J160" s="4" t="n">
-        <v>57.27</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="K160" s="4" t="n">
-        <v>100</v>
+        <v>94.44</v>
       </c>
       <c r="L160" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M160" s="5" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="N160" s="5" t="n">
-        <v>3.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O160" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P160" s="4" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="Q160" s="4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R160" s="4" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="S160" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T160" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T160" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U160" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V160" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 10/04/2025</t>
         </is>
       </c>
       <c r="W160" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -15749,17 +15749,17 @@
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7803100001</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>CORIANDRUM SATIVUM (CILANTRO)</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -15769,88 +15769,88 @@
       </c>
       <c r="E168" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F168" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G168" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H168" s="4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I168" s="4" t="n">
-        <v>148.45</v>
+        <v>118.37</v>
       </c>
       <c r="J168" s="4" t="n">
-        <v>86.95</v>
+        <v>59.61</v>
       </c>
       <c r="K168" s="4" t="n">
-        <v>83.33</v>
+        <v>106.38</v>
       </c>
       <c r="L168" s="4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M168" s="5" t="n">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
       <c r="N168" s="5" t="n">
-        <v>18.3</v>
+        <v>12.2</v>
       </c>
       <c r="O168" s="4" t="n">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="P168" s="4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q168" s="4" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R168" s="4" t="n">
-        <v>186.67</v>
+        <v>0</v>
       </c>
       <c r="S168" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T168" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T168" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U168" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V168" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W168" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>7803100001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>CORIANDRUM SATIVUM (CILANTRO)</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
@@ -15860,71 +15860,71 @@
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F169" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G169" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H169" s="4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I169" s="4" t="n">
-        <v>118.37</v>
+        <v>148.45</v>
       </c>
       <c r="J169" s="4" t="n">
-        <v>59.61</v>
+        <v>86.95</v>
       </c>
       <c r="K169" s="4" t="n">
-        <v>106.38</v>
+        <v>83.33</v>
       </c>
       <c r="L169" s="4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M169" s="5" t="n">
-        <v>4.1</v>
+        <v>6.1</v>
       </c>
       <c r="N169" s="5" t="n">
-        <v>12.2</v>
+        <v>18.3</v>
       </c>
       <c r="O169" s="4" t="n">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="P169" s="4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="Q169" s="4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R169" s="4" t="n">
-        <v>0</v>
+        <v>186.67</v>
       </c>
       <c r="S169" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T169" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T169" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U169" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V169" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W169" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -16731,17 +16731,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7401250006</t>
+          <t>7401590001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS PINK KISSES (CLAVEL)</t>
+          <t>PAEONIA LACTIFLORA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -16763,37 +16763,37 @@
         <v>15</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>123.84</v>
+        <v>113.94</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>67.58</v>
+        <v>58.58</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>51.72</v>
+        <v>75</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>186.67</v>
+        <v>213.33</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>30</v>
@@ -16805,34 +16805,34 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7401590001</t>
+          <t>7401250006</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>PAEONIA LACTIFLORA</t>
+          <t>DIANTHUS PINK KISSES (CLAVEL)</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -16854,37 +16854,37 @@
         <v>15</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>113.94</v>
+        <v>123.84</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>58.58</v>
+        <v>67.58</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>75</v>
+        <v>51.72</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>213.33</v>
+        <v>186.67</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>30</v>
@@ -16896,17 +16896,17 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -19461,17 +19461,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>7401180000</t>
+          <t>7203510004</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>KALANCHOE BLOSSFELDIANA CALANDIVA</t>
+          <t>MIMOSA PUDICA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>M11A25</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -19481,49 +19481,49 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>92.25</v>
+        <v>103.87</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>44.86</v>
+        <v>55.43</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>59.52</v>
+        <v>72.22</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="N38" s="5" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>253.33</v>
+        <v>213.33</v>
       </c>
       <c r="S38" s="5" t="n">
         <v>30</v>
@@ -19535,34 +19535,34 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>7203510004</t>
+          <t>7401180000</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>MIMOSA PUDICA</t>
+          <t>KALANCHOE BLOSSFELDIANA CALANDIVA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>M11A25</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -19572,49 +19572,49 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>103.87</v>
+        <v>92.25</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>55.43</v>
+        <v>44.86</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>72.22</v>
+        <v>59.52</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="N39" s="5" t="n">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>213.33</v>
+        <v>253.33</v>
       </c>
       <c r="S39" s="5" t="n">
         <v>30</v>
@@ -19626,17 +19626,17 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -25831,17 +25831,17 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7804160002</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>MENTHA  PIPERITA CITRATA "CHOCOLATE"</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -25851,88 +25851,88 @@
       </c>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G108" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H108" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I108" s="4" t="n">
-        <v>58.47</v>
+        <v>59.85</v>
       </c>
       <c r="J108" s="4" t="n">
-        <v>31.85</v>
+        <v>33.11</v>
       </c>
       <c r="K108" s="4" t="n">
-        <v>37.5</v>
+        <v>93.75</v>
       </c>
       <c r="L108" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" s="5" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="N108" s="5" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P108" s="4" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q108" s="4" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="R108" s="4" t="n">
-        <v>73.33</v>
+        <v>340</v>
       </c>
       <c r="S108" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T108" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>30</v>
+      </c>
+      <c r="T108" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U108" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V108" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 10/04/2025</t>
         </is>
       </c>
       <c r="W108" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>7804160002</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>MENTHA  PIPERITA CITRATA "CHOCOLATE"</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -25942,71 +25942,71 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G109" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H109" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>59.85</v>
+        <v>58.47</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>33.11</v>
+        <v>31.85</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>93.75</v>
+        <v>37.5</v>
       </c>
       <c r="L109" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109" s="5" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="N109" s="5" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="Q109" s="4" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="R109" s="4" t="n">
-        <v>340</v>
+        <v>73.33</v>
       </c>
       <c r="S109" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T109" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>10</v>
+      </c>
+      <c r="T109" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
         <is>
-          <t>Compra 10/04/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W109" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -26195,17 +26195,17 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>7905040005</t>
+          <t>7905030000</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PIQUILLO</t>
+          <t>APIUM GRAVEOLENS (APIO)</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -26230,13 +26230,13 @@
         <v>19</v>
       </c>
       <c r="I112" s="4" t="n">
-        <v>47.31</v>
+        <v>48.75</v>
       </c>
       <c r="J112" s="4" t="n">
-        <v>22.3</v>
+        <v>23.61</v>
       </c>
       <c r="K112" s="4" t="n">
-        <v>42.22</v>
+        <v>48.72</v>
       </c>
       <c r="L112" s="4" t="n">
         <v>0</v>
@@ -26248,10 +26248,10 @@
         <v>4.6</v>
       </c>
       <c r="O112" s="4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P112" s="4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q112" s="4" t="n">
         <v>50</v>
@@ -26286,17 +26286,17 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>7905030000</t>
+          <t>7905040005</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>APIUM GRAVEOLENS (APIO)</t>
+          <t>PIMIENTO PIQUILLO</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -26321,13 +26321,13 @@
         <v>19</v>
       </c>
       <c r="I113" s="4" t="n">
-        <v>48.75</v>
+        <v>47.31</v>
       </c>
       <c r="J113" s="4" t="n">
-        <v>23.61</v>
+        <v>22.3</v>
       </c>
       <c r="K113" s="4" t="n">
-        <v>48.72</v>
+        <v>42.22</v>
       </c>
       <c r="L113" s="4" t="n">
         <v>0</v>
@@ -26339,10 +26339,10 @@
         <v>4.6</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P113" s="4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q113" s="4" t="n">
         <v>50</v>
@@ -28106,17 +28106,17 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>7905120020</t>
+          <t>7201040000</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CHERRY ESPALDERA</t>
+          <t>SUTERA HYBRIDA</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>C19A60</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
@@ -28126,88 +28126,88 @@
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F133" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G133" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H133" s="4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I133" s="4" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="J133" s="4" t="n">
-        <v>19.67</v>
+        <v>19.49</v>
       </c>
       <c r="K133" s="4" t="n">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="L133" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133" s="5" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="N133" s="5" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="O133" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P133" s="4" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="Q133" s="4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="R133" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S133" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T133" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T133" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U133" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V133" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 15/04/2025</t>
         </is>
       </c>
       <c r="W133" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>7201040000</t>
+          <t>7905120020</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>SUTERA HYBRIDA</t>
+          <t>TOMATE CHERRY ESPALDERA</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>C19A60</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
@@ -28217,71 +28217,71 @@
       </c>
       <c r="E134" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F134" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G134" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H134" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I134" s="4" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="J134" s="4" t="n">
-        <v>19.49</v>
+        <v>19.67</v>
       </c>
       <c r="K134" s="4" t="n">
-        <v>93.33</v>
+        <v>100</v>
       </c>
       <c r="L134" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M134" s="5" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="N134" s="5" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="O134" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P134" s="4" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="Q134" s="4" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="R134" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S134" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T134" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T134" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U134" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V134" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W134" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
@@ -28470,17 +28470,17 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>7905120018</t>
+          <t>7401520000</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>TOMATE MONTERROSA</t>
+          <t>LITHODORA DIFUSA</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>M12A30</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -28490,88 +28490,88 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G137" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H137" s="4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I137" s="4" t="n">
-        <v>41.88</v>
+        <v>44.55</v>
       </c>
       <c r="J137" s="4" t="n">
-        <v>20.07</v>
+        <v>22.5</v>
       </c>
       <c r="K137" s="4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L137" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M137" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N137" s="5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O137" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N137" s="5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O137" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="P137" s="4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q137" s="4" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="R137" s="4" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="S137" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T137" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T137" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U137" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V137" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 20/03/2025</t>
         </is>
       </c>
       <c r="W137" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>7401520000</t>
+          <t>7905120018</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>LITHODORA DIFUSA</t>
+          <t>TOMATE MONTERROSA</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M12A30</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -28581,71 +28581,71 @@
       </c>
       <c r="E138" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F138" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G138" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H138" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I138" s="4" t="n">
-        <v>44.55</v>
+        <v>41.88</v>
       </c>
       <c r="J138" s="4" t="n">
-        <v>22.5</v>
+        <v>20.07</v>
       </c>
       <c r="K138" s="4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L138" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M138" s="5" t="n">
-        <v>0.7</v>
-      </c>
       <c r="N138" s="5" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O138" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P138" s="4" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q138" s="4" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="R138" s="4" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="S138" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T138" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T138" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U138" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V138" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W138" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
@@ -31181,12 +31181,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>7905080000</t>
+          <t>7904120002</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>SANDIA RALLADA CRIMSOM SWEET</t>
+          <t>LECHUGA HOJA ROBLE</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -31216,13 +31216,13 @@
         <v>8</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>39.92</v>
+        <v>31.92</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>22.05</v>
+        <v>14.78</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>0</v>
@@ -31234,50 +31234,50 @@
         <v>2</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>8</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T26" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T26" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>26C</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>7904120002</t>
+          <t>7905080000</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA HOJA ROBLE</t>
+          <t>SANDIA RALLADA CRIMSOM SWEET</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -31307,13 +31307,13 @@
         <v>8</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>31.92</v>
+        <v>39.92</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>14.78</v>
+        <v>22.05</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -31325,38 +31325,38 @@
         <v>2</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>8</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T27" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA MODERADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades. Demanda estable.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>26C</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -32000,17 +32000,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>7905120015</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CHERRY NEGRO</t>
+          <t>DIANTHUS CARYOPHYLUS MINI</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>JAR25A25</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -32020,49 +32020,49 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>29.88</v>
+        <v>38.85</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>13.72</v>
+        <v>21.88</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M35" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N35" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O35" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N35" s="5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O35" s="4" t="n">
-        <v>3</v>
-      </c>
       <c r="P35" s="4" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>413.33</v>
+        <v>586.67</v>
       </c>
       <c r="S35" s="5" t="n">
         <v>30</v>
@@ -32074,34 +32074,34 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
+          <t>LIQUIDACIÓN PARCIAL: Aplicar descuento 30% a stock actual. Reducir compras 50% próxima temporada. Producto de baja rotación confirmada.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7905120015</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARYOPHYLUS MINI</t>
+          <t>TOMATE CHERRY NEGRO</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>JAR25A25</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -32111,49 +32111,49 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H36" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J36" s="4" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="K36" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="L36" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I36" s="4" t="n">
-        <v>38.85</v>
-      </c>
-      <c r="J36" s="4" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="K36" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="L36" s="4" t="n">
+      <c r="M36" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M36" s="5" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N36" s="5" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P36" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q36" s="4" t="n">
         <v>62</v>
       </c>
-      <c r="Q36" s="4" t="n">
-        <v>88</v>
-      </c>
       <c r="R36" s="4" t="n">
-        <v>586.67</v>
+        <v>413.33</v>
       </c>
       <c r="S36" s="5" t="n">
         <v>30</v>
@@ -32165,17 +32165,17 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN PARCIAL: Aplicar descuento 30% a stock actual. Reducir compras 50% próxima temporada. Producto de baja rotación confirmada.</t>
+          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -35367,17 +35367,17 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>7202520010</t>
+          <t>7904120008</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>SCHIZANTHUS X WISETONENSIS</t>
+          <t>LECHUGA TROCADERO</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>M14A30</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -35387,12 +35387,12 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
@@ -35402,16 +35402,16 @@
         <v>4</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>23.96</v>
+        <v>19.96</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>12.7</v>
+        <v>9.07</v>
       </c>
       <c r="K72" s="4" t="n">
-        <v>80</v>
+        <v>57.14</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M72" s="5" t="n">
         <v>0.3</v>
@@ -35420,10 +35420,10 @@
         <v>1</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P72" s="4" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="Q72" s="4" t="n">
         <v>92</v>
@@ -35441,7 +35441,7 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -35451,24 +35451,24 @@
       </c>
       <c r="W72" s="4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>7904120008</t>
+          <t>7202520010</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA TROCADERO</t>
+          <t>SCHIZANTHUS X WISETONENSIS</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>M14A30</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -35478,12 +35478,12 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -35493,16 +35493,16 @@
         <v>4</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>19.96</v>
+        <v>23.96</v>
       </c>
       <c r="J73" s="4" t="n">
-        <v>9.07</v>
+        <v>12.7</v>
       </c>
       <c r="K73" s="4" t="n">
-        <v>57.14</v>
+        <v>80</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M73" s="5" t="n">
         <v>0.3</v>
@@ -35511,10 +35511,10 @@
         <v>1</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P73" s="4" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="Q73" s="4" t="n">
         <v>92</v>
@@ -35532,7 +35532,7 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
+          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
@@ -35542,7 +35542,7 @@
       </c>
       <c r="W73" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -37005,17 +37005,17 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>7905020001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>BERENJENA ALMAGRO</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -37025,88 +37025,88 @@
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H90" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I90" s="4" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="J90" s="4" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="K90" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" s="5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O90" s="4" t="n">
+        <v>-12</v>
+      </c>
+      <c r="P90" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="I90" s="4" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="J90" s="4" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="K90" s="4" t="n">
-        <v>26.67</v>
-      </c>
-      <c r="L90" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" s="5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N90" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O90" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="P90" s="4" t="n">
-        <v>5</v>
-      </c>
       <c r="Q90" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R90" s="4" t="n">
-        <v>333.33</v>
+        <v>0</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T90" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T90" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -12 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W90" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7905020001</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
+          <t>BERENJENA ALMAGRO</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -37116,71 +37116,71 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H91" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I91" s="4" t="n">
-        <v>23.88</v>
+        <v>19.92</v>
       </c>
       <c r="J91" s="4" t="n">
-        <v>14.03</v>
+        <v>10.43</v>
       </c>
       <c r="K91" s="4" t="n">
-        <v>0</v>
+        <v>26.67</v>
       </c>
       <c r="L91" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M91" s="5" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N91" s="5" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>-12</v>
+        <v>22</v>
       </c>
       <c r="P91" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q91" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R91" s="4" t="n">
-        <v>0</v>
+        <v>333.33</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T91" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T91" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -12 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W91" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -37369,12 +37369,12 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7201400001</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
+          <t>PORTULACA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -37425,7 +37425,7 @@
         <v>3</v>
       </c>
       <c r="P94" s="4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q94" s="4" t="n">
         <v>18</v>
@@ -37460,12 +37460,12 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>7203500001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>VERBENA HYBRIDA</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -37501,7 +37501,7 @@
         <v>8.99</v>
       </c>
       <c r="K95" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L95" s="4" t="n">
         <v>0</v>
@@ -37513,50 +37513,50 @@
         <v>0.7</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P95" s="4" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="Q95" s="4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R95" s="4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="S95" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T95" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>20</v>
+      </c>
+      <c r="T95" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W95" s="4" t="inlineStr">
         <is>
-          <t>26D</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>7201400001</t>
+          <t>7203500001</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA GRANDIFLORA</t>
+          <t>VERBENA HYBRIDA</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -37592,7 +37592,7 @@
         <v>8.99</v>
       </c>
       <c r="K96" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L96" s="4" t="n">
         <v>0</v>
@@ -37604,38 +37604,38 @@
         <v>0.7</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P96" s="4" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="Q96" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R96" s="4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="S96" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T96" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T96" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
         </is>
       </c>
       <c r="V96" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W96" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>26D</t>
         </is>
       </c>
     </row>
@@ -42101,17 +42101,17 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>7401250011</t>
+          <t>7206030004</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS HYBRIDA</t>
+          <t>CYCLAMEN PERSICUM ABANICO</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>1I6LA40</t>
+          <t>M14A50</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -42121,12 +42121,12 @@
       </c>
       <c r="E146" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F146" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G146" s="4" t="n">
@@ -42136,10 +42136,10 @@
         <v>1</v>
       </c>
       <c r="I146" s="4" t="n">
-        <v>7.99</v>
+        <v>6.99</v>
       </c>
       <c r="J146" s="4" t="n">
-        <v>4.46</v>
+        <v>3.55</v>
       </c>
       <c r="K146" s="4" t="n">
         <v>0</v>
@@ -42157,7 +42157,7 @@
         <v>-1</v>
       </c>
       <c r="P146" s="4" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="Q146" s="4" t="n">
         <v>0</v>
@@ -42192,17 +42192,17 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>7206030004</t>
+          <t>7401250011</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM ABANICO</t>
+          <t>DIANTHUS HYBRIDA</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>M14A50</t>
+          <t>1I6LA40</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -42212,12 +42212,12 @@
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F147" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G147" s="4" t="n">
@@ -42227,10 +42227,10 @@
         <v>1</v>
       </c>
       <c r="I147" s="4" t="n">
-        <v>6.99</v>
+        <v>7.99</v>
       </c>
       <c r="J147" s="4" t="n">
-        <v>3.55</v>
+        <v>4.46</v>
       </c>
       <c r="K147" s="4" t="n">
         <v>0</v>
@@ -42248,7 +42248,7 @@
         <v>-1</v>
       </c>
       <c r="P147" s="4" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="Q147" s="4" t="n">
         <v>0</v>
@@ -42912,42 +42912,42 @@
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>7905100001</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>ACELGA</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>AMARILLO</t>
         </is>
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F155" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G155" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H155" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" s="4" t="n">
-        <v>4.98</v>
+        <v>4.99</v>
       </c>
       <c r="J155" s="4" t="n">
         <v>2.56</v>
@@ -42959,16 +42959,16 @@
         <v>0</v>
       </c>
       <c r="M155" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N155" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="N155" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O155" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P155" s="4" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q155" s="4" t="n">
         <v>0</v>
@@ -42986,7 +42986,7 @@
       </c>
       <c r="U155" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V155" s="4" t="inlineStr">
@@ -43003,42 +43003,42 @@
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7905100001</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>ACELGA</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E156" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F156" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G156" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H156" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" s="4" t="n">
-        <v>4.99</v>
+        <v>4.98</v>
       </c>
       <c r="J156" s="4" t="n">
         <v>2.56</v>
@@ -43050,16 +43050,16 @@
         <v>0</v>
       </c>
       <c r="M156" s="5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N156" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O156" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P156" s="4" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="Q156" s="4" t="n">
         <v>0</v>
@@ -43077,7 +43077,7 @@
       </c>
       <c r="U156" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V156" s="4" t="inlineStr">
@@ -44341,17 +44341,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>7203500003</t>
+          <t>7206040001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>VERBENA BONARIENSIS</t>
+          <t>MATTHIOLA INCANA DOBLE (ALHELÍ)</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -44385,7 +44385,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -44394,16 +44394,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>253.33</v>
+        <v>613.33</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>30</v>
@@ -44415,12 +44415,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -44432,17 +44432,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>7401740046</t>
+          <t>7805020002</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>GLYCYRRHIZA GLABRA (REGALIZ)</t>
+          <t>LAVANDULA DENTATA VAR. CANDICANS</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -44452,12 +44452,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -44476,7 +44476,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -44485,16 +44485,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>166.67</v>
+        <v>586.67</v>
       </c>
       <c r="S3" s="5" t="n">
         <v>30</v>
@@ -44511,7 +44511,7 @@
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -44523,17 +44523,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7504010002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>PERICALLIS HYBRIDA "SENETTI BABY"</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>C17A35</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -44543,12 +44543,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -44567,7 +44567,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -44576,7 +44576,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
@@ -44614,17 +44614,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7202520006</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>TROPAEOLUM MAJUS</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -44658,7 +44658,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -44667,19 +44667,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>613.33</v>
+        <v>6.67</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -44688,12 +44688,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 30/05/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -44705,17 +44705,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>7804250002</t>
+          <t>7503010005</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
+          <t>DENDRANTHEMA X GRANDIFLORUM</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M13A30</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -44725,12 +44725,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -44749,7 +44749,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -44758,19 +44758,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>186.67</v>
+        <v>26.67</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
@@ -44779,12 +44779,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -44796,17 +44796,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>7805110002</t>
+          <t>7803030001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>SALVIA LEUCANTHA</t>
+          <t>OCIMUM BASILICUM "MINIMUM"</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>C16A15</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -44840,7 +44840,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -44849,19 +44849,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>613.33</v>
+        <v>26.67</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
@@ -44870,12 +44870,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -44887,17 +44887,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7401050001</t>
+          <t>7804160002</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>LOBULARIA MARITIMA</t>
+          <t>MENTHA PIPERITA CITRATA "CHOCOLATE"</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>M15A30</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -44907,12 +44907,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -44931,7 +44931,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -44940,19 +44940,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>26.67</v>
+        <v>613.33</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T8" s="8" t="inlineStr">
         <is>
@@ -44961,12 +44961,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.56€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -44978,17 +44978,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7901010004</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA RED ROSE MIAM</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>1LA30</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -44998,12 +44998,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -45022,7 +45022,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -45031,19 +45031,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>73.33</v>
+        <v>613.33</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -45052,12 +45052,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -45069,17 +45069,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>7905130013</t>
+          <t>7401740013</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>COL DE MILAN</t>
+          <t>AUBRIETA X CULTORUM</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A30</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -45089,12 +45089,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -45113,7 +45113,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -45122,7 +45122,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
@@ -45143,7 +45143,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.84€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -45160,17 +45160,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>7803250003</t>
+          <t>7203500003</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ORIGANUM VULGARE</t>
+          <t>VERBENA BONARIENSIS</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -45180,12 +45180,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -45204,7 +45204,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -45213,19 +45213,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>6.67</v>
+        <v>253.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -45234,12 +45234,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/05/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -45251,17 +45251,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>7904120005</t>
+          <t>7401740046</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ICEBERG</t>
+          <t>GLYCYRRHIZA GLABRA (REGALIZ)</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -45271,12 +45271,12 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -45295,7 +45295,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -45304,16 +45304,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>613.33</v>
+        <v>166.67</v>
       </c>
       <c r="S12" s="5" t="n">
         <v>30</v>
@@ -45325,12 +45325,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -45342,17 +45342,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>7803030001</t>
+          <t>7901010004</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>OCIMUM BASILICUM "MINIMUM"</t>
+          <t>FRAGARIA ANANASSA - FRESA RED ROSE MIAM</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>C16A15</t>
+          <t>1LA30</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -45362,12 +45362,12 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -45386,7 +45386,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -45395,19 +45395,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>26.67</v>
+        <v>73.33</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T13" s="8" t="inlineStr">
         <is>
@@ -45416,12 +45416,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -45433,17 +45433,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>7804160002</t>
+          <t>7805110002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MENTHA PIPERITA CITRATA "CHOCOLATE"</t>
+          <t>SALVIA LEUCANTHA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -45477,7 +45477,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -45486,7 +45486,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
@@ -45507,7 +45507,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.56€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -45524,17 +45524,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>7206020004</t>
+          <t>7804250002</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN IND CARNAVAL</t>
+          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>M12A25</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -45544,12 +45544,12 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -45568,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -45577,16 +45577,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>613.33</v>
+        <v>186.67</v>
       </c>
       <c r="S15" s="5" t="n">
         <v>30</v>
@@ -45598,12 +45598,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.96€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -45615,17 +45615,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>7205090002</t>
+          <t>7803250003</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>VIOLA X WITROCKIANA</t>
+          <t>ORIGANUM VULGARE</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>T23A15</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -45635,12 +45635,12 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -45659,7 +45659,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -45668,19 +45668,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>613.33</v>
+        <v>6.67</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
@@ -45689,12 +45689,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 30/05/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -45706,17 +45706,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>7805020002</t>
+          <t>7905130013</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA DENTATA VAR. CANDICANS</t>
+          <t>COL DE MILAN</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -45726,12 +45726,12 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -45750,7 +45750,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -45759,16 +45759,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>586.67</v>
+        <v>613.33</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>30</v>
@@ -45780,12 +45780,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -45797,17 +45797,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>7401290001</t>
+          <t>7401050001</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ERYSIMUM HYBRIDUM</t>
+          <t>LOBULARIA MARITIMA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>2LA20</t>
+          <t>M15A30</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -45841,7 +45841,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -45850,19 +45850,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>73.33</v>
+        <v>26.67</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
@@ -45871,12 +45871,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -45888,17 +45888,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>7401740013</t>
+          <t>7401290001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>AUBRIETA X CULTORUM</t>
+          <t>ERYSIMUM HYBRIDUM</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>M13A30</t>
+          <t>2LA20</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -45932,7 +45932,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -45941,19 +45941,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>613.33</v>
+        <v>73.33</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
@@ -45962,12 +45962,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -45979,17 +45979,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>7203230001</t>
+          <t>7904120005</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>GERBERA HYBRIDS</t>
+          <t>LECHUGA ICEBERG</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>2LA35</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -45999,12 +45999,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -46023,7 +46023,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -46032,19 +46032,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>73.33</v>
+        <v>613.33</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T20" s="8" t="inlineStr">
         <is>
@@ -46053,12 +46053,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -46070,17 +46070,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>7202520006</t>
+          <t>7804230001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>TROPAEOLUM MAJUS</t>
+          <t>THYMUS VULGARIS COMPACTUS</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>C17A30</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -46090,12 +46090,12 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -46114,7 +46114,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -46123,16 +46123,16 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>6.67</v>
+        <v>26.67</v>
       </c>
       <c r="S21" s="5" t="n">
         <v>0</v>
@@ -46149,7 +46149,7 @@
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/05/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -46161,17 +46161,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>7804230001</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>THYMUS VULGARIS COMPACTUS</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>C17A30</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -46252,17 +46252,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>7206040001</t>
+          <t>7206020004</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>MATTHIOLA INCANA DOBLE (ALHELÍ)</t>
+          <t>CHRYSANTHEMUN IND CARNAVAL</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M12A25</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -46296,7 +46296,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -46305,7 +46305,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
@@ -46326,7 +46326,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.96€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -46343,17 +46343,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>7503010005</t>
+          <t>7205090002</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>DENDRANTHEMA X GRANDIFLORUM</t>
+          <t>VIOLA X WITROCKIANA</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>M13A30</t>
+          <t>T23A15</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -46363,12 +46363,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -46387,7 +46387,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -46396,19 +46396,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>26.67</v>
+        <v>613.33</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T24" s="8" t="inlineStr">
         <is>
@@ -46417,12 +46417,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -46434,17 +46434,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>7504010002</t>
+          <t>7203230001</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>PERICALLIS HYBRIDA "SENETTI BABY"</t>
+          <t>GERBERA HYBRIDS</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>C17A35</t>
+          <t>2LA35</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -46454,12 +46454,12 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -46478,7 +46478,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -46487,19 +46487,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>26.67</v>
+        <v>73.33</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
@@ -46508,12 +46508,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_MAF_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MAF_P2_2025.xlsx
@@ -10374,17 +10374,17 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>7805010002</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>OCIMUN BASILICUM GRAND VERT</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
@@ -10409,16 +10409,16 @@
         <v>48</v>
       </c>
       <c r="I109" s="3" t="n">
-        <v>232.8</v>
+        <v>222.04</v>
       </c>
       <c r="J109" s="3" t="n">
-        <v>144.44</v>
+        <v>134.65</v>
       </c>
       <c r="K109" s="3" t="n">
-        <v>75</v>
+        <v>46.6</v>
       </c>
       <c r="L109" s="3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M109" s="4" t="n">
         <v>3.9</v>
@@ -10427,10 +10427,10 @@
         <v>11.7</v>
       </c>
       <c r="O109" s="3" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="P109" s="3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q109" s="3" t="n">
         <v>25</v>
@@ -10448,7 +10448,7 @@
       </c>
       <c r="U109" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 2 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V109" s="3" t="inlineStr">
@@ -10458,24 +10458,24 @@
       </c>
       <c r="W109" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7805010002</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>OCIMUN BASILICUM GRAND VERT</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
@@ -10500,16 +10500,16 @@
         <v>48</v>
       </c>
       <c r="I110" s="3" t="n">
-        <v>222.04</v>
+        <v>232.8</v>
       </c>
       <c r="J110" s="3" t="n">
-        <v>134.65</v>
+        <v>144.44</v>
       </c>
       <c r="K110" s="3" t="n">
-        <v>46.6</v>
+        <v>75</v>
       </c>
       <c r="L110" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M110" s="4" t="n">
         <v>3.9</v>
@@ -10518,10 +10518,10 @@
         <v>11.7</v>
       </c>
       <c r="O110" s="3" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="P110" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q110" s="3" t="n">
         <v>25</v>
@@ -10539,7 +10539,7 @@
       </c>
       <c r="U110" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 2 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V110" s="3" t="inlineStr">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="W110" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -16725,17 +16725,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>7401590001</t>
+          <t>7401250006</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>PAEONIA LACTIFLORA</t>
+          <t>DIANTHUS PINK KISSES (CLAVEL)</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -16757,37 +16757,37 @@
         <v>15</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>113.94</v>
+        <v>123.84</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>58.58</v>
+        <v>67.58</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>75</v>
+        <v>51.72</v>
       </c>
       <c r="L8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>213.33</v>
+        <v>186.67</v>
       </c>
       <c r="S8" s="4" t="n">
         <v>30</v>
@@ -16799,34 +16799,34 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W8" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>7401250006</t>
+          <t>7401590001</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>DIANTHUS PINK KISSES (CLAVEL)</t>
+          <t>PAEONIA LACTIFLORA</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -16848,37 +16848,37 @@
         <v>15</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>123.84</v>
+        <v>113.94</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>67.58</v>
+        <v>58.58</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>51.72</v>
+        <v>75</v>
       </c>
       <c r="L9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>186.67</v>
+        <v>213.33</v>
       </c>
       <c r="S9" s="4" t="n">
         <v>30</v>
@@ -16890,17 +16890,17 @@
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -19455,17 +19455,17 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>7401180000</t>
+          <t>7203510004</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>KALANCHOE BLOSSFELDIANA CALANDIVA</t>
+          <t>MIMOSA PUDICA</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>M11A25</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
@@ -19475,49 +19475,49 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G38" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>92.25</v>
+        <v>103.87</v>
       </c>
       <c r="J38" s="3" t="n">
-        <v>44.86</v>
+        <v>55.43</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>59.52</v>
+        <v>72.22</v>
       </c>
       <c r="L38" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P38" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R38" s="3" t="n">
-        <v>253.33</v>
+        <v>213.33</v>
       </c>
       <c r="S38" s="4" t="n">
         <v>30</v>
@@ -19529,34 +19529,34 @@
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V38" s="3" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W38" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>7203510004</t>
+          <t>7401180000</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>MIMOSA PUDICA</t>
+          <t>KALANCHOE BLOSSFELDIANA CALANDIVA</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>M11A25</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -19566,49 +19566,49 @@
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G39" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>103.87</v>
+        <v>92.25</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>55.43</v>
+        <v>44.86</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>72.22</v>
+        <v>59.52</v>
       </c>
       <c r="L39" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>213.33</v>
+        <v>253.33</v>
       </c>
       <c r="S39" s="4" t="n">
         <v>30</v>
@@ -19620,17 +19620,17 @@
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W39" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -23095,17 +23095,17 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>7203500001</t>
+          <t>7401250007</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>VERBENA HYBRIDA</t>
+          <t>DIANTHUS PEMAN</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>M15A20</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
@@ -23115,12 +23115,12 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G78" s="3" t="n">
@@ -23130,13 +23130,13 @@
         <v>13</v>
       </c>
       <c r="I78" s="3" t="n">
-        <v>64.87</v>
+        <v>71.37</v>
       </c>
       <c r="J78" s="3" t="n">
-        <v>32.71</v>
+        <v>38.62</v>
       </c>
       <c r="K78" s="3" t="n">
-        <v>92.86</v>
+        <v>43.33</v>
       </c>
       <c r="L78" s="3" t="n">
         <v>0</v>
@@ -23148,16 +23148,16 @@
         <v>3.2</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="P78" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q78" s="3" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="R78" s="3" t="n">
-        <v>186.67</v>
+        <v>400</v>
       </c>
       <c r="S78" s="4" t="n">
         <v>30</v>
@@ -23169,34 +23169,34 @@
       </c>
       <c r="U78" s="2" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V78" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W78" s="3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>7401250007</t>
+          <t>7203500001</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>DIANTHUS PEMAN</t>
+          <t>VERBENA HYBRIDA</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M15A20</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
@@ -23206,12 +23206,12 @@
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G79" s="3" t="n">
@@ -23221,13 +23221,13 @@
         <v>13</v>
       </c>
       <c r="I79" s="3" t="n">
-        <v>71.37</v>
+        <v>64.87</v>
       </c>
       <c r="J79" s="3" t="n">
-        <v>38.62</v>
+        <v>32.71</v>
       </c>
       <c r="K79" s="3" t="n">
-        <v>43.33</v>
+        <v>92.86</v>
       </c>
       <c r="L79" s="3" t="n">
         <v>0</v>
@@ -23239,16 +23239,16 @@
         <v>3.2</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="P79" s="3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q79" s="3" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="R79" s="3" t="n">
-        <v>400</v>
+        <v>186.67</v>
       </c>
       <c r="S79" s="4" t="n">
         <v>30</v>
@@ -23260,17 +23260,17 @@
       </c>
       <c r="U79" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V79" s="3" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W79" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -25825,17 +25825,17 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>7804160002</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>MENTHA  PIPERITA CITRATA "CHOCOLATE"</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
@@ -25845,88 +25845,88 @@
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G108" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I108" s="3" t="n">
-        <v>59.85</v>
+        <v>58.47</v>
       </c>
       <c r="J108" s="3" t="n">
-        <v>33.11</v>
+        <v>31.85</v>
       </c>
       <c r="K108" s="3" t="n">
-        <v>93.75</v>
+        <v>37.5</v>
       </c>
       <c r="L108" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108" s="4" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="N108" s="4" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="O108" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P108" s="3" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="Q108" s="3" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="R108" s="3" t="n">
-        <v>340</v>
+        <v>73.33</v>
       </c>
       <c r="S108" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T108" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>10</v>
+      </c>
+      <c r="T108" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U108" s="2" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V108" s="3" t="inlineStr">
         <is>
-          <t>Compra 10/04/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W108" s="3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7804160002</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>MENTHA  PIPERITA CITRATA "CHOCOLATE"</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
@@ -25936,71 +25936,71 @@
       </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G109" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I109" s="3" t="n">
-        <v>58.47</v>
+        <v>59.85</v>
       </c>
       <c r="J109" s="3" t="n">
-        <v>31.85</v>
+        <v>33.11</v>
       </c>
       <c r="K109" s="3" t="n">
-        <v>37.5</v>
+        <v>93.75</v>
       </c>
       <c r="L109" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" s="4" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="N109" s="4" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="O109" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P109" s="3" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q109" s="3" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="R109" s="3" t="n">
-        <v>73.33</v>
+        <v>340</v>
       </c>
       <c r="S109" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T109" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>30</v>
+      </c>
+      <c r="T109" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U109" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V109" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 10/04/2025</t>
         </is>
       </c>
       <c r="W109" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -27827,17 +27827,17 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>7401500001</t>
+          <t>7201530006</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>LEUCANTHEMUM PALUDOSUM</t>
+          <t>HYACINTHUS ORIENTALIS</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M7A15</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
@@ -27847,88 +27847,88 @@
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F130" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G130" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H130" s="3" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I130" s="3" t="n">
-        <v>55.72</v>
+        <v>47.76</v>
       </c>
       <c r="J130" s="3" t="n">
-        <v>32.17</v>
+        <v>24.94</v>
       </c>
       <c r="K130" s="3" t="n">
-        <v>58.33</v>
+        <v>0</v>
       </c>
       <c r="L130" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M130" s="4" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N130" s="4" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="O130" s="3" t="n">
-        <v>20</v>
+        <v>-24</v>
       </c>
       <c r="P130" s="3" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Q130" s="3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R130" s="3" t="n">
-        <v>73.33</v>
+        <v>0</v>
       </c>
       <c r="S130" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T130" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T130" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U130" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -24 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V130" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W130" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>7201530006</t>
+          <t>7401500001</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>HYACINTHUS ORIENTALIS</t>
+          <t>LEUCANTHEMUM PALUDOSUM</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>M7A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
@@ -27938,71 +27938,71 @@
       </c>
       <c r="E131" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F131" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G131" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H131" s="3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I131" s="3" t="n">
-        <v>47.76</v>
+        <v>55.72</v>
       </c>
       <c r="J131" s="3" t="n">
-        <v>24.94</v>
+        <v>32.17</v>
       </c>
       <c r="K131" s="3" t="n">
-        <v>0</v>
+        <v>58.33</v>
       </c>
       <c r="L131" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M131" s="4" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N131" s="4" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="O131" s="3" t="n">
-        <v>-24</v>
+        <v>20</v>
       </c>
       <c r="P131" s="3" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="Q131" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R131" s="3" t="n">
-        <v>0</v>
+        <v>73.33</v>
       </c>
       <c r="S131" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T131" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T131" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U131" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -24 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V131" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W131" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -28191,17 +28191,17 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>7905120020</t>
+          <t>7905040021</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>TOMATE CHERRY ESPALDERA</t>
+          <t>PIMIENTO PICANTE CHILE POBLANO</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>C19A60</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
@@ -28223,76 +28223,76 @@
         <v>15</v>
       </c>
       <c r="H134" s="3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I134" s="3" t="n">
-        <v>41.5</v>
+        <v>41.86</v>
       </c>
       <c r="J134" s="3" t="n">
-        <v>19.67</v>
+        <v>19.99</v>
       </c>
       <c r="K134" s="3" t="n">
-        <v>100</v>
+        <v>46.67</v>
       </c>
       <c r="L134" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M134" s="4" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="N134" s="4" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="O134" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P134" s="3" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="Q134" s="3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R134" s="3" t="n">
-        <v>0</v>
+        <v>333.33</v>
       </c>
       <c r="S134" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T134" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T134" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U134" s="2" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V134" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W134" s="3" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>7905040021</t>
+          <t>7905120020</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE CHILE POBLANO</t>
+          <t>TOMATE CHERRY ESPALDERA</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>C19A60</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
@@ -28314,59 +28314,59 @@
         <v>15</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I135" s="3" t="n">
-        <v>41.86</v>
+        <v>41.5</v>
       </c>
       <c r="J135" s="3" t="n">
-        <v>19.99</v>
+        <v>19.67</v>
       </c>
       <c r="K135" s="3" t="n">
-        <v>46.67</v>
+        <v>100</v>
       </c>
       <c r="L135" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M135" s="4" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="N135" s="4" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="O135" s="3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P135" s="3" t="n">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="Q135" s="3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R135" s="3" t="n">
-        <v>333.33</v>
+        <v>0</v>
       </c>
       <c r="S135" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T135" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T135" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U135" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V135" s="3" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W135" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
@@ -34815,17 +34815,17 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>7905130024</t>
+          <t>7401740034</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>TATSOI BRASSICA RAPA VAR NARINOSA</t>
+          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>3LA55</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
@@ -34835,88 +34835,88 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G66" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>26.91</v>
+        <v>27.9</v>
       </c>
       <c r="J66" s="3" t="n">
-        <v>14.74</v>
+        <v>15.64</v>
       </c>
       <c r="K66" s="3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M66" s="4" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="N66" s="4" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="O66" s="3" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P66" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="P66" s="3" t="n">
-        <v>5</v>
-      </c>
       <c r="Q66" s="3" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3" t="n">
-        <v>413.33</v>
+        <v>0</v>
       </c>
       <c r="S66" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T66" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T66" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U66" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V66" s="3" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W66" s="3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>7401740034</t>
+          <t>7905130024</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
+          <t>TATSOI BRASSICA RAPA VAR NARINOSA</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>3LA55</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
@@ -34926,71 +34926,71 @@
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G67" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>27.9</v>
+        <v>26.91</v>
       </c>
       <c r="J67" s="3" t="n">
-        <v>15.64</v>
+        <v>14.74</v>
       </c>
       <c r="K67" s="3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L67" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M67" s="4" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="N67" s="4" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="P67" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q67" s="3" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="R67" s="3" t="n">
-        <v>0</v>
+        <v>413.33</v>
       </c>
       <c r="S67" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T67" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U67" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W67" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -35361,17 +35361,17 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>7202520010</t>
+          <t>7904120008</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>SCHIZANTHUS X WISETONENSIS</t>
+          <t>LECHUGA TROCADERO</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>M14A30</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
@@ -35381,12 +35381,12 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G72" s="3" t="n">
@@ -35396,16 +35396,16 @@
         <v>4</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>23.96</v>
+        <v>19.96</v>
       </c>
       <c r="J72" s="3" t="n">
-        <v>12.7</v>
+        <v>9.07</v>
       </c>
       <c r="K72" s="3" t="n">
-        <v>80</v>
+        <v>57.14</v>
       </c>
       <c r="L72" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M72" s="4" t="n">
         <v>0.3</v>
@@ -35414,10 +35414,10 @@
         <v>1</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P72" s="3" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="Q72" s="3" t="n">
         <v>92</v>
@@ -35435,7 +35435,7 @@
       </c>
       <c r="U72" s="2" t="inlineStr">
         <is>
-          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="3" t="inlineStr">
@@ -35445,24 +35445,24 @@
       </c>
       <c r="W72" s="3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>7904120008</t>
+          <t>7202520010</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA TROCADERO</t>
+          <t>SCHIZANTHUS X WISETONENSIS</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>M14A30</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
@@ -35472,12 +35472,12 @@
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G73" s="3" t="n">
@@ -35487,16 +35487,16 @@
         <v>4</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>19.96</v>
+        <v>23.96</v>
       </c>
       <c r="J73" s="3" t="n">
-        <v>9.07</v>
+        <v>12.7</v>
       </c>
       <c r="K73" s="3" t="n">
-        <v>57.14</v>
+        <v>80</v>
       </c>
       <c r="L73" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M73" s="4" t="n">
         <v>0.3</v>
@@ -35505,10 +35505,10 @@
         <v>1</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P73" s="3" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="Q73" s="3" t="n">
         <v>92</v>
@@ -35526,7 +35526,7 @@
       </c>
       <c r="U73" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
+          <t>ELIMINAR DEL CATÁLOGO: Aplicar descuento 30% para liquidar stock residual. NO recomprar. Bajo interés confirmado del cliente.</t>
         </is>
       </c>
       <c r="V73" s="3" t="inlineStr">
@@ -35536,7 +35536,7 @@
       </c>
       <c r="W73" s="3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -37454,12 +37454,12 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7201400001</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
+          <t>PORTULACA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -37510,7 +37510,7 @@
         <v>3</v>
       </c>
       <c r="P95" s="3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q95" s="3" t="n">
         <v>18</v>
@@ -37545,12 +37545,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>7201400001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>PORTULACA GRANDIFLORA</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -37601,7 +37601,7 @@
         <v>3</v>
       </c>
       <c r="P96" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q96" s="3" t="n">
         <v>18</v>
@@ -42095,17 +42095,17 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>7401250011</t>
+          <t>7206030004</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>DIANTHUS HYBRIDA</t>
+          <t>CYCLAMEN PERSICUM ABANICO</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>1I6LA40</t>
+          <t>M14A50</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
@@ -42115,12 +42115,12 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F146" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G146" s="3" t="n">
@@ -42130,10 +42130,10 @@
         <v>1</v>
       </c>
       <c r="I146" s="3" t="n">
-        <v>7.99</v>
+        <v>6.99</v>
       </c>
       <c r="J146" s="3" t="n">
-        <v>4.46</v>
+        <v>3.55</v>
       </c>
       <c r="K146" s="3" t="n">
         <v>0</v>
@@ -42151,7 +42151,7 @@
         <v>-1</v>
       </c>
       <c r="P146" s="3" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="Q146" s="3" t="n">
         <v>0</v>
@@ -42186,17 +42186,17 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>7206030004</t>
+          <t>7401250011</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM ABANICO</t>
+          <t>DIANTHUS HYBRIDA</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>M14A50</t>
+          <t>1I6LA40</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
@@ -42206,12 +42206,12 @@
       </c>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G147" s="3" t="n">
@@ -42221,10 +42221,10 @@
         <v>1</v>
       </c>
       <c r="I147" s="3" t="n">
-        <v>6.99</v>
+        <v>7.99</v>
       </c>
       <c r="J147" s="3" t="n">
-        <v>3.55</v>
+        <v>4.46</v>
       </c>
       <c r="K147" s="3" t="n">
         <v>0</v>
@@ -42242,7 +42242,7 @@
         <v>-1</v>
       </c>
       <c r="P147" s="3" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="Q147" s="3" t="n">
         <v>0</v>
@@ -42906,42 +42906,42 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>7905100001</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>ACELGA</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>AMARILLO</t>
         </is>
       </c>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F155" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G155" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H155" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" s="3" t="n">
-        <v>4.98</v>
+        <v>4.99</v>
       </c>
       <c r="J155" s="3" t="n">
         <v>2.56</v>
@@ -42953,16 +42953,16 @@
         <v>0</v>
       </c>
       <c r="M155" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N155" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="N155" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O155" s="3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P155" s="3" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q155" s="3" t="n">
         <v>0</v>
@@ -42980,7 +42980,7 @@
       </c>
       <c r="U155" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V155" s="3" t="inlineStr">
@@ -42997,42 +42997,42 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7905100001</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>ACELGA</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G156" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H156" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" s="3" t="n">
-        <v>4.99</v>
+        <v>4.98</v>
       </c>
       <c r="J156" s="3" t="n">
         <v>2.56</v>
@@ -43044,16 +43044,16 @@
         <v>0</v>
       </c>
       <c r="M156" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N156" s="4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O156" s="3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P156" s="3" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="Q156" s="3" t="n">
         <v>0</v>
@@ -43071,7 +43071,7 @@
       </c>
       <c r="U156" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V156" s="3" t="inlineStr">
@@ -44335,17 +44335,17 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>7905130013</t>
+          <t>7203230001</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>COL DE MILAN</t>
+          <t>GERBERA HYBRIDS</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>2LA35</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -44355,12 +44355,12 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G2" s="3" t="n">
@@ -44379,7 +44379,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>0</v>
@@ -44388,19 +44388,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>613.33</v>
+        <v>73.33</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
@@ -44409,12 +44409,12 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.84€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W2" s="3" t="inlineStr">
@@ -44517,17 +44517,17 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>7503010005</t>
+          <t>7803250003</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>DENDRANTHEMA X GRANDIFLORUM</t>
+          <t>ORIGANUM VULGARE</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>M13A30</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -44537,12 +44537,12 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">
@@ -44561,7 +44561,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>0</v>
@@ -44570,16 +44570,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>26.67</v>
+        <v>6.67</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
@@ -44596,7 +44596,7 @@
       </c>
       <c r="V4" s="3" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 30/05/2025</t>
         </is>
       </c>
       <c r="W4" s="3" t="inlineStr">
@@ -44608,17 +44608,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>7805020002</t>
+          <t>7202520006</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>LAVANDULA DENTATA VAR. CANDICANS</t>
+          <t>TROPAEOLUM MAJUS</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -44628,12 +44628,12 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G5" s="3" t="n">
@@ -44652,7 +44652,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -44661,19 +44661,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>586.67</v>
+        <v>6.67</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7" t="inlineStr">
         <is>
@@ -44682,12 +44682,12 @@
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="3" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Compra 30/05/2025</t>
         </is>
       </c>
       <c r="W5" s="3" t="inlineStr">
@@ -44790,17 +44790,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7904120005</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>LECHUGA ICEBERG</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -44810,12 +44810,12 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G7" s="3" t="n">
@@ -44834,7 +44834,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>0</v>
@@ -44843,7 +44843,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>92</v>
@@ -44864,7 +44864,7 @@
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
@@ -44972,17 +44972,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>7401290001</t>
+          <t>7804160002</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>ERYSIMUM HYBRIDUM</t>
+          <t>MENTHA PIPERITA CITRATA "CHOCOLATE"</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2LA20</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -44992,12 +44992,12 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G9" s="3" t="n">
@@ -45016,7 +45016,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M9" s="4" t="n">
         <v>0</v>
@@ -45025,19 +45025,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>73.33</v>
+        <v>613.33</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T9" s="7" t="inlineStr">
         <is>
@@ -45046,12 +45046,12 @@
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.56€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
@@ -45063,17 +45063,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>7803030001</t>
+          <t>7401290001</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>OCIMUM BASILICUM "MINIMUM"</t>
+          <t>ERYSIMUM HYBRIDUM</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>C16A15</t>
+          <t>2LA20</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -45083,12 +45083,12 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G10" s="3" t="n">
@@ -45122,13 +45122,13 @@
         <v>92</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>26.67</v>
+        <v>73.33</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T10" s="7" t="inlineStr">
         <is>
@@ -45137,12 +45137,12 @@
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W10" s="3" t="inlineStr">
@@ -45154,17 +45154,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>7205090002</t>
+          <t>7803030001</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>VIOLA X WITROCKIANA</t>
+          <t>OCIMUM BASILICUM "MINIMUM"</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>T23A15</t>
+          <t>C16A15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -45174,12 +45174,12 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G11" s="3" t="n">
@@ -45198,7 +45198,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M11" s="4" t="n">
         <v>0</v>
@@ -45207,19 +45207,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>613.33</v>
+        <v>26.67</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T11" s="7" t="inlineStr">
         <is>
@@ -45228,12 +45228,12 @@
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W11" s="3" t="inlineStr">
@@ -45245,17 +45245,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7206020004</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>CHRYSANTHEMUN IND CARNAVAL</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>M12A25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -45265,12 +45265,12 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G12" s="3" t="n">
@@ -45289,7 +45289,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>0</v>
@@ -45298,19 +45298,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>26.67</v>
+        <v>613.33</v>
       </c>
       <c r="S12" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
@@ -45319,12 +45319,12 @@
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.96€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="3" t="inlineStr">
@@ -45336,17 +45336,17 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>7804250002</t>
+          <t>7804230001</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
+          <t>THYMUS VULGARIS COMPACTUS</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>C17A30</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -45380,7 +45380,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M13" s="4" t="n">
         <v>0</v>
@@ -45389,19 +45389,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>186.67</v>
+        <v>26.67</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T13" s="7" t="inlineStr">
         <is>
@@ -45410,12 +45410,12 @@
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W13" s="3" t="inlineStr">
@@ -45427,17 +45427,17 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>7401740046</t>
+          <t>7805110002</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>GLYCYRRHIZA GLABRA (REGALIZ)</t>
+          <t>SALVIA LEUCANTHA</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -45447,12 +45447,12 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G14" s="3" t="n">
@@ -45471,7 +45471,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M14" s="4" t="n">
         <v>0</v>
@@ -45480,16 +45480,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>166.67</v>
+        <v>613.33</v>
       </c>
       <c r="S14" s="4" t="n">
         <v>30</v>
@@ -45501,12 +45501,12 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="3" t="inlineStr">
@@ -45518,12 +45518,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>7805110002</t>
+          <t>7805020002</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>SALVIA LEUCANTHA</t>
+          <t>LAVANDULA DENTATA VAR. CANDICANS</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -45562,7 +45562,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="M15" s="4" t="n">
         <v>0</v>
@@ -45571,16 +45571,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>613.33</v>
+        <v>586.67</v>
       </c>
       <c r="S15" s="4" t="n">
         <v>30</v>
@@ -45592,12 +45592,12 @@
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W15" s="3" t="inlineStr">
@@ -45609,17 +45609,17 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>7804230001</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>THYMUS VULGARIS COMPACTUS</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>C17A30</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -45629,12 +45629,12 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G16" s="3" t="n">
@@ -45653,7 +45653,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M16" s="4" t="n">
         <v>0</v>
@@ -45662,19 +45662,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P16" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>26.67</v>
+        <v>613.33</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T16" s="7" t="inlineStr">
         <is>
@@ -45683,12 +45683,12 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="3" t="inlineStr">
@@ -45700,17 +45700,17 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>7804160002</t>
+          <t>7206040001</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>MENTHA PIPERITA CITRATA "CHOCOLATE"</t>
+          <t>MATTHIOLA INCANA DOBLE (ALHELÍ)</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -45720,12 +45720,12 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G17" s="3" t="n">
@@ -45744,7 +45744,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>0</v>
@@ -45753,7 +45753,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P17" s="3" t="n">
         <v>92</v>
@@ -45774,7 +45774,7 @@
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.56€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
@@ -45791,17 +45791,17 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>7206020004</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN IND CARNAVAL</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>M12A25</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -45811,12 +45811,12 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G18" s="3" t="n">
@@ -45835,7 +45835,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>0</v>
@@ -45844,19 +45844,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>613.33</v>
+        <v>26.67</v>
       </c>
       <c r="S18" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T18" s="7" t="inlineStr">
         <is>
@@ -45865,12 +45865,12 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.96€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W18" s="3" t="inlineStr">
@@ -45882,17 +45882,17 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>7206040001</t>
+          <t>7504010002</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>MATTHIOLA INCANA DOBLE (ALHELÍ)</t>
+          <t>PERICALLIS HYBRIDA "SENETTI BABY"</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>C17A35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -45902,12 +45902,12 @@
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G19" s="3" t="n">
@@ -45926,7 +45926,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M19" s="4" t="n">
         <v>0</v>
@@ -45935,19 +45935,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>613.33</v>
+        <v>26.67</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T19" s="7" t="inlineStr">
         <is>
@@ -45956,12 +45956,12 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W19" s="3" t="inlineStr">
@@ -45973,17 +45973,17 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>7202520006</t>
+          <t>7205090002</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>TROPAEOLUM MAJUS</t>
+          <t>VIOLA X WITROCKIANA</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>T23A15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -46017,7 +46017,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M20" s="4" t="n">
         <v>0</v>
@@ -46026,19 +46026,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P20" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>6.67</v>
+        <v>613.33</v>
       </c>
       <c r="S20" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
@@ -46047,12 +46047,12 @@
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="3" t="inlineStr">
         <is>
-          <t>Compra 30/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W20" s="3" t="inlineStr">
@@ -46064,17 +46064,17 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>7203230001</t>
+          <t>7804250002</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>GERBERA HYBRIDS</t>
+          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2LA35</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -46084,12 +46084,12 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G21" s="3" t="n">
@@ -46108,7 +46108,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>0</v>
@@ -46117,19 +46117,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="P21" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>73.33</v>
+        <v>186.67</v>
       </c>
       <c r="S21" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T21" s="7" t="inlineStr">
         <is>
@@ -46138,12 +46138,12 @@
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W21" s="3" t="inlineStr">
@@ -46155,17 +46155,17 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>7504010002</t>
+          <t>7401050001</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>PERICALLIS HYBRIDA "SENETTI BABY"</t>
+          <t>LOBULARIA MARITIMA</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>C17A35</t>
+          <t>M15A30</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -46175,12 +46175,12 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G22" s="3" t="n">
@@ -46199,7 +46199,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>0</v>
@@ -46208,7 +46208,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="P22" s="3" t="n">
         <v>92</v>
@@ -46246,17 +46246,17 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>7803250003</t>
+          <t>7905130013</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>ORIGANUM VULGARE</t>
+          <t>COL DE MILAN</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -46266,12 +46266,12 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G23" s="3" t="n">
@@ -46290,7 +46290,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>0</v>
@@ -46299,19 +46299,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P23" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="R23" s="3" t="n">
-        <v>6.67</v>
+        <v>613.33</v>
       </c>
       <c r="S23" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T23" s="7" t="inlineStr">
         <is>
@@ -46320,12 +46320,12 @@
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="3" t="inlineStr">
         <is>
-          <t>Compra 30/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="3" t="inlineStr">
@@ -46337,17 +46337,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>7401050001</t>
+          <t>7503010005</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>LOBULARIA MARITIMA</t>
+          <t>DENDRANTHEMA X GRANDIFLORUM</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>M15A30</t>
+          <t>M13A30</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -46357,12 +46357,12 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G24" s="3" t="n">
@@ -46381,7 +46381,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M24" s="4" t="n">
         <v>0</v>
@@ -46390,7 +46390,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P24" s="3" t="n">
         <v>92</v>
@@ -46428,17 +46428,17 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>7904120005</t>
+          <t>7401740046</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA ICEBERG</t>
+          <t>GLYCYRRHIZA GLABRA (REGALIZ)</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -46448,12 +46448,12 @@
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G25" s="3" t="n">
@@ -46472,7 +46472,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M25" s="4" t="n">
         <v>0</v>
@@ -46481,16 +46481,16 @@
         <v>0</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P25" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="R25" s="3" t="n">
-        <v>613.33</v>
+        <v>166.67</v>
       </c>
       <c r="S25" s="4" t="n">
         <v>30</v>
@@ -46502,12 +46502,12 @@
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W25" s="3" t="inlineStr">
